--- a/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.05621739751914</v>
+        <v>18.05621739751907</v>
       </c>
       <c r="C2">
-        <v>9.823168050928018</v>
+        <v>9.823168050927938</v>
       </c>
       <c r="D2">
-        <v>4.366368954755435</v>
+        <v>4.366368954755441</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.33739384370156</v>
+        <v>36.33739384370153</v>
       </c>
       <c r="G2">
-        <v>28.61432938943597</v>
+        <v>28.61432938943598</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.06703110490611</v>
+        <v>15.06703110490604</v>
       </c>
       <c r="K2">
         <v>12.84615221293871</v>
       </c>
       <c r="L2">
-        <v>16.11288086539899</v>
+        <v>16.11288086539891</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.78308474427947</v>
+        <v>16.7830847442795</v>
       </c>
       <c r="C3">
-        <v>9.323807328238543</v>
+        <v>9.323807328238592</v>
       </c>
       <c r="D3">
-        <v>4.400520646871404</v>
+        <v>4.40052064687152</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.52377760668923</v>
+        <v>34.5237776066891</v>
       </c>
       <c r="G3">
-        <v>27.34613842595454</v>
+        <v>27.34613842595446</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.08844116659804</v>
+        <v>14.08844116659808</v>
       </c>
       <c r="K3">
-        <v>12.12032418397779</v>
+        <v>12.1203241839778</v>
       </c>
       <c r="L3">
-        <v>14.98207041085372</v>
+        <v>14.9820704108537</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.96096190819265</v>
+        <v>15.96096190819267</v>
       </c>
       <c r="C4">
-        <v>9.004614692216732</v>
+        <v>9.004614692216951</v>
       </c>
       <c r="D4">
-        <v>4.422347027946659</v>
+        <v>4.422347027946422</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.39622191830934</v>
+        <v>33.39622191830928</v>
       </c>
       <c r="G4">
-        <v>26.56424750140825</v>
+        <v>26.56424750140814</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.45791092486932</v>
+        <v>13.45791092486942</v>
       </c>
       <c r="K4">
         <v>11.66648377563217</v>
       </c>
       <c r="L4">
-        <v>14.25385607696738</v>
+        <v>14.2538560769674</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.61562025695991</v>
+        <v>15.61562025695989</v>
       </c>
       <c r="C5">
-        <v>8.871388339062996</v>
+        <v>8.871388339063078</v>
       </c>
       <c r="D5">
-        <v>4.431443316396446</v>
+        <v>4.431443316396691</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.93361353248195</v>
+        <v>32.93361353248191</v>
       </c>
       <c r="G5">
-        <v>26.24507426279151</v>
+        <v>26.24507426279153</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.1934257283753</v>
+        <v>13.19342572837529</v>
       </c>
       <c r="K5">
-        <v>11.47961705178079</v>
+        <v>11.47961705178077</v>
       </c>
       <c r="L5">
-        <v>13.9484293838661</v>
+        <v>13.94842938386607</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,16 +570,16 @@
         <v>8.849076429201901</v>
       </c>
       <c r="D6">
-        <v>4.432965576316306</v>
+        <v>4.432965576316175</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.85662280915309</v>
+        <v>32.85662280915306</v>
       </c>
       <c r="G6">
-        <v>26.19205152735615</v>
+        <v>26.19205152735612</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>13.14905087122338</v>
       </c>
       <c r="K6">
-        <v>11.44847664791411</v>
+        <v>11.44847664791409</v>
       </c>
       <c r="L6">
-        <v>13.89718547372073</v>
+        <v>13.89718547372077</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.95634649703895</v>
+        <v>15.95634649703896</v>
       </c>
       <c r="C7">
-        <v>9.002830693830955</v>
+        <v>9.002830693830836</v>
       </c>
       <c r="D7">
-        <v>4.422468903022779</v>
+        <v>4.4224689030225</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.38999505736593</v>
+        <v>33.38999505736596</v>
       </c>
       <c r="G7">
-        <v>26.55994484432068</v>
+        <v>26.55994484432067</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.45437460120341</v>
+        <v>13.45437460120337</v>
       </c>
       <c r="K7">
-        <v>11.66397120105974</v>
+        <v>11.66397120105973</v>
       </c>
       <c r="L7">
-        <v>14.249772295376</v>
+        <v>14.24977229537602</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.62553154120099</v>
+        <v>17.62553154120093</v>
       </c>
       <c r="C8">
-        <v>9.653601923677988</v>
+        <v>9.653601923677909</v>
       </c>
       <c r="D8">
-        <v>4.377957723784378</v>
+        <v>4.377957723784602</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>35.7151694726153</v>
       </c>
       <c r="G8">
-        <v>28.17786428855153</v>
+        <v>28.17786428855155</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14.73571981269599</v>
+        <v>14.73571981269592</v>
       </c>
       <c r="K8">
-        <v>12.5976497679733</v>
+        <v>12.59764976797329</v>
       </c>
       <c r="L8">
         <v>15.72991692765435</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.58575479811198</v>
+        <v>20.585754798112</v>
       </c>
       <c r="C9">
-        <v>10.83028176194419</v>
+        <v>10.83028176194385</v>
       </c>
       <c r="D9">
-        <v>4.298202822222098</v>
+        <v>4.298202822222287</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.15175870146371</v>
+        <v>40.15175870146387</v>
       </c>
       <c r="G9">
-        <v>31.31678564086275</v>
+        <v>31.31678564086288</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17.01737918519918</v>
+        <v>17.0173791851991</v>
       </c>
       <c r="K9">
-        <v>14.36992314069687</v>
+        <v>14.36992314069689</v>
       </c>
       <c r="L9">
-        <v>18.37106188067826</v>
+        <v>18.37106188067829</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.58132769139619</v>
+        <v>22.58132769139621</v>
       </c>
       <c r="C10">
-        <v>11.63585415276317</v>
+        <v>11.63585415276278</v>
       </c>
       <c r="D10">
-        <v>4.245432066096751</v>
+        <v>4.24543206609676</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>18.56020233482202</v>
+        <v>18.56020233482196</v>
       </c>
       <c r="K10">
-        <v>15.84694347890416</v>
+        <v>15.84694347890417</v>
       </c>
       <c r="L10">
-        <v>20.16375408945766</v>
+        <v>20.16375408945769</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.45308970364819</v>
+        <v>23.45308970364821</v>
       </c>
       <c r="C11">
-        <v>11.99023792147259</v>
+        <v>11.99023792147266</v>
       </c>
       <c r="D11">
-        <v>4.223043300081816</v>
+        <v>4.223043300081796</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.75538318068279</v>
+        <v>44.755383180683</v>
       </c>
       <c r="G11">
-        <v>34.62794291318802</v>
+        <v>34.62794291318819</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>19.23506278465189</v>
+        <v>19.23506278465188</v>
       </c>
       <c r="K11">
-        <v>16.49743696463808</v>
+        <v>16.49743696463814</v>
       </c>
       <c r="L11">
-        <v>20.95015695818958</v>
+        <v>20.95015695818965</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.77828815302788</v>
+        <v>23.77828815302782</v>
       </c>
       <c r="C12">
-        <v>12.12277775805107</v>
+        <v>12.122777758051</v>
       </c>
       <c r="D12">
-        <v>4.214834921207473</v>
+        <v>4.214834921207413</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.29356222133731</v>
+        <v>45.29356222133727</v>
       </c>
       <c r="G12">
-        <v>35.01791882435047</v>
+        <v>35.01791882435043</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19.48692792629398</v>
+        <v>19.48692792629395</v>
       </c>
       <c r="K12">
-        <v>16.74094541683782</v>
+        <v>16.7409454168378</v>
       </c>
       <c r="L12">
-        <v>21.24404164581113</v>
+        <v>21.24404164581109</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.70846510771644</v>
+        <v>23.70846510771652</v>
       </c>
       <c r="C13">
-        <v>12.09430519931647</v>
+        <v>12.09430519931646</v>
       </c>
       <c r="D13">
-        <v>4.216590073011309</v>
+        <v>4.216590073011328</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.17775547842372</v>
+        <v>45.17775547842377</v>
       </c>
       <c r="G13">
-        <v>34.93395673243624</v>
+        <v>34.93395673243626</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>19.43284506616618</v>
+        <v>19.43284506616627</v>
       </c>
       <c r="K13">
-        <v>16.68862239870929</v>
+        <v>16.68862239870934</v>
       </c>
       <c r="L13">
-        <v>21.18091740733212</v>
+        <v>21.18091740733221</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.47994094495536</v>
+        <v>23.47994094495552</v>
       </c>
       <c r="C14">
-        <v>12.00117475627773</v>
+        <v>12.00117475627786</v>
       </c>
       <c r="D14">
-        <v>4.222362346017638</v>
+        <v>4.222362346017618</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.79970485427903</v>
+        <v>44.7997048542791</v>
       </c>
       <c r="G14">
-        <v>34.66003856582498</v>
+        <v>34.66003856582502</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>19.25585665169994</v>
+        <v>19.25585665170007</v>
       </c>
       <c r="K14">
-        <v>16.51752544472852</v>
+        <v>16.51752544472854</v>
       </c>
       <c r="L14">
-        <v>20.97441166672562</v>
+        <v>20.9744116667257</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.339331022079</v>
+        <v>23.33933102207899</v>
       </c>
       <c r="C15">
-        <v>11.94391645961481</v>
+        <v>11.94391645961494</v>
       </c>
       <c r="D15">
-        <v>4.22593438996085</v>
+        <v>4.225934389960751</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.56784108010895</v>
+        <v>44.56784108010882</v>
       </c>
       <c r="G15">
-        <v>34.49217566355768</v>
+        <v>34.49217566355757</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.14697168339773</v>
+        <v>19.14697168339774</v>
       </c>
       <c r="K15">
-        <v>16.4123647523117</v>
+        <v>16.41236475231172</v>
       </c>
       <c r="L15">
-        <v>20.8474206456802</v>
+        <v>20.84742064568023</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.52365268813184</v>
+        <v>22.52365268813183</v>
       </c>
       <c r="C16">
-        <v>11.61245767068154</v>
+        <v>11.61245767068131</v>
       </c>
       <c r="D16">
-        <v>4.246930784839545</v>
+        <v>4.246930784839574</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.23438712213568</v>
+        <v>43.2343871221358</v>
       </c>
       <c r="G16">
-        <v>33.52886185779222</v>
+        <v>33.52886185779235</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>18.51557136557001</v>
+        <v>18.51557136557</v>
       </c>
       <c r="K16">
-        <v>15.80402278133035</v>
+        <v>15.80402278133033</v>
       </c>
       <c r="L16">
-        <v>20.11179801555368</v>
+        <v>20.11179801555367</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.01420913214463</v>
+        <v>22.01420913214462</v>
       </c>
       <c r="C17">
-        <v>11.4060759746274</v>
+        <v>11.4060759746276</v>
       </c>
       <c r="D17">
-        <v>4.2602498530366</v>
+        <v>4.260249853036512</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.41196233988772</v>
+        <v>42.41196233988765</v>
       </c>
       <c r="G17">
-        <v>32.93657058961268</v>
+        <v>32.93657058961259</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.12144486945606</v>
+        <v>18.1214448694561</v>
       </c>
       <c r="K17">
-        <v>15.42551516155293</v>
+        <v>15.42551516155291</v>
       </c>
       <c r="L17">
-        <v>19.65324946133139</v>
+        <v>19.65324946133138</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,19 +1023,19 @@
         <v>21.71778163129073</v>
       </c>
       <c r="C18">
-        <v>11.28622830064239</v>
+        <v>11.28622830064233</v>
       </c>
       <c r="D18">
-        <v>4.268060206234982</v>
+        <v>4.268060206234992</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.93725840458396</v>
+        <v>41.93725840458387</v>
       </c>
       <c r="G18">
-        <v>32.59537620730134</v>
+        <v>32.59537620730128</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>17.89220166262471</v>
+        <v>17.89220166262469</v>
       </c>
       <c r="K18">
-        <v>15.20577493973949</v>
+        <v>15.20577493973947</v>
       </c>
       <c r="L18">
-        <v>19.38674688644594</v>
+        <v>19.38674688644592</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.61682333245899</v>
+        <v>21.61682333245907</v>
       </c>
       <c r="C19">
-        <v>11.24545163131681</v>
+        <v>11.24545163131672</v>
       </c>
       <c r="D19">
-        <v>4.270729325899288</v>
+        <v>4.270729325899236</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.77624186200908</v>
+        <v>41.77624186200916</v>
       </c>
       <c r="G19">
-        <v>32.47976122797009</v>
+        <v>32.47976122797017</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>17.81414017670761</v>
+        <v>17.8141401767076</v>
       </c>
       <c r="K19">
-        <v>15.13101820157027</v>
+        <v>15.13101820157025</v>
       </c>
       <c r="L19">
-        <v>19.29603221787402</v>
+        <v>19.29603221787403</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.06879128136226</v>
+        <v>22.06879128136222</v>
       </c>
       <c r="C20">
-        <v>11.42816337858211</v>
+        <v>11.42816337858219</v>
       </c>
       <c r="D20">
-        <v>4.258816287438095</v>
+        <v>4.258816287438235</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.49968243734445</v>
+        <v>42.49968243734434</v>
       </c>
       <c r="G20">
-        <v>32.99967461771229</v>
+        <v>32.9996746177122</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.16366314744759</v>
+        <v>18.16366314744755</v>
       </c>
       <c r="K20">
-        <v>15.46601654295501</v>
+        <v>15.46601654295495</v>
       </c>
       <c r="L20">
-        <v>19.70234624610201</v>
+        <v>19.70234624610194</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.54719528405995</v>
+        <v>23.54719528405998</v>
       </c>
       <c r="C21">
-        <v>12.02857369062273</v>
+        <v>12.0285736906228</v>
       </c>
       <c r="D21">
-        <v>4.22065923512849</v>
+        <v>4.220659235128588</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.9108088561491</v>
+        <v>44.91080885614912</v>
       </c>
       <c r="G21">
         <v>34.74051131681028</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>19.30794093885811</v>
+        <v>19.30794093885816</v>
       </c>
       <c r="K21">
         <v>16.5678550423351</v>
       </c>
       <c r="L21">
-        <v>21.03517112667104</v>
+        <v>21.03517112667107</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.48489144601562</v>
+        <v>24.48489144601558</v>
       </c>
       <c r="C22">
         <v>12.41136509762834</v>
       </c>
       <c r="D22">
-        <v>4.197316598158754</v>
+        <v>4.197316598158654</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.03439305908925</v>
+        <v>20.03439305908922</v>
       </c>
       <c r="K22">
         <v>17.27168368879271</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.986940521341</v>
+        <v>23.98694052134088</v>
       </c>
       <c r="C23">
-        <v>12.20791055420583</v>
+        <v>12.20791055420603</v>
       </c>
       <c r="D23">
-        <v>4.209614756805163</v>
+        <v>4.209614756805231</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.64044780589182</v>
+        <v>45.6404478058919</v>
       </c>
       <c r="G23">
-        <v>35.26956615215639</v>
+        <v>35.26956615215646</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>19.64856021929029</v>
+        <v>19.6485602192902</v>
       </c>
       <c r="K23">
-        <v>16.89743220987119</v>
+        <v>16.89743220987121</v>
       </c>
       <c r="L23">
-        <v>21.43275647232869</v>
+        <v>21.43275647232864</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.04412574249045</v>
+        <v>22.04412574249037</v>
       </c>
       <c r="C24">
         <v>11.41818139450495</v>
       </c>
       <c r="D24">
-        <v>4.259463928475967</v>
+        <v>4.259463928475944</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.46003005236859</v>
+        <v>42.46003005236854</v>
       </c>
       <c r="G24">
-        <v>32.97114740753307</v>
+        <v>32.97114740753301</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.14458454652552</v>
+        <v>18.14458454652548</v>
       </c>
       <c r="K24">
-        <v>15.44771252560301</v>
+        <v>15.44771252560294</v>
       </c>
       <c r="L24">
-        <v>19.6801585709782</v>
+        <v>19.68015857097814</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.81731860611282</v>
+        <v>19.81731860611274</v>
       </c>
       <c r="C25">
-        <v>10.52249143467948</v>
+        <v>10.52249143467937</v>
       </c>
       <c r="D25">
-        <v>4.318858725329464</v>
+        <v>4.318858725329347</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.96597599569276</v>
+        <v>38.96597599569277</v>
       </c>
       <c r="G25">
-        <v>30.47212689820547</v>
+        <v>30.4721268982055</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.42417601112128</v>
+        <v>16.42417601112123</v>
       </c>
       <c r="K25">
-        <v>13.89105646503454</v>
+        <v>13.8910564650345</v>
       </c>
       <c r="L25">
-        <v>17.68342235402933</v>
+        <v>17.68342235402928</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.05621739751907</v>
+        <v>18.05621739751914</v>
       </c>
       <c r="C2">
-        <v>9.823168050927938</v>
+        <v>9.823168050928018</v>
       </c>
       <c r="D2">
-        <v>4.366368954755441</v>
+        <v>4.366368954755435</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.33739384370153</v>
+        <v>36.33739384370156</v>
       </c>
       <c r="G2">
-        <v>28.61432938943598</v>
+        <v>28.61432938943597</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.06703110490604</v>
+        <v>15.06703110490611</v>
       </c>
       <c r="K2">
         <v>12.84615221293871</v>
       </c>
       <c r="L2">
-        <v>16.11288086539891</v>
+        <v>16.11288086539899</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.7830847442795</v>
+        <v>16.78308474427947</v>
       </c>
       <c r="C3">
-        <v>9.323807328238592</v>
+        <v>9.323807328238543</v>
       </c>
       <c r="D3">
-        <v>4.40052064687152</v>
+        <v>4.400520646871404</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.5237776066891</v>
+        <v>34.52377760668923</v>
       </c>
       <c r="G3">
-        <v>27.34613842595446</v>
+        <v>27.34613842595454</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.08844116659808</v>
+        <v>14.08844116659804</v>
       </c>
       <c r="K3">
-        <v>12.1203241839778</v>
+        <v>12.12032418397779</v>
       </c>
       <c r="L3">
-        <v>14.9820704108537</v>
+        <v>14.98207041085372</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.96096190819267</v>
+        <v>15.96096190819265</v>
       </c>
       <c r="C4">
-        <v>9.004614692216951</v>
+        <v>9.004614692216732</v>
       </c>
       <c r="D4">
-        <v>4.422347027946422</v>
+        <v>4.422347027946659</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.39622191830928</v>
+        <v>33.39622191830934</v>
       </c>
       <c r="G4">
-        <v>26.56424750140814</v>
+        <v>26.56424750140825</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.45791092486942</v>
+        <v>13.45791092486932</v>
       </c>
       <c r="K4">
         <v>11.66648377563217</v>
       </c>
       <c r="L4">
-        <v>14.2538560769674</v>
+        <v>14.25385607696738</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.61562025695989</v>
+        <v>15.61562025695991</v>
       </c>
       <c r="C5">
-        <v>8.871388339063078</v>
+        <v>8.871388339062996</v>
       </c>
       <c r="D5">
-        <v>4.431443316396691</v>
+        <v>4.431443316396446</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.93361353248191</v>
+        <v>32.93361353248195</v>
       </c>
       <c r="G5">
-        <v>26.24507426279153</v>
+        <v>26.24507426279151</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.19342572837529</v>
+        <v>13.1934257283753</v>
       </c>
       <c r="K5">
-        <v>11.47961705178077</v>
+        <v>11.47961705178079</v>
       </c>
       <c r="L5">
-        <v>13.94842938386607</v>
+        <v>13.9484293838661</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,16 +570,16 @@
         <v>8.849076429201901</v>
       </c>
       <c r="D6">
-        <v>4.432965576316175</v>
+        <v>4.432965576316306</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.85662280915306</v>
+        <v>32.85662280915309</v>
       </c>
       <c r="G6">
-        <v>26.19205152735612</v>
+        <v>26.19205152735615</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>13.14905087122338</v>
       </c>
       <c r="K6">
-        <v>11.44847664791409</v>
+        <v>11.44847664791411</v>
       </c>
       <c r="L6">
-        <v>13.89718547372077</v>
+        <v>13.89718547372073</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.95634649703896</v>
+        <v>15.95634649703895</v>
       </c>
       <c r="C7">
-        <v>9.002830693830836</v>
+        <v>9.002830693830955</v>
       </c>
       <c r="D7">
-        <v>4.4224689030225</v>
+        <v>4.422468903022779</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.38999505736596</v>
+        <v>33.38999505736593</v>
       </c>
       <c r="G7">
-        <v>26.55994484432067</v>
+        <v>26.55994484432068</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.45437460120337</v>
+        <v>13.45437460120341</v>
       </c>
       <c r="K7">
-        <v>11.66397120105973</v>
+        <v>11.66397120105974</v>
       </c>
       <c r="L7">
-        <v>14.24977229537602</v>
+        <v>14.249772295376</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.62553154120093</v>
+        <v>17.62553154120099</v>
       </c>
       <c r="C8">
-        <v>9.653601923677909</v>
+        <v>9.653601923677988</v>
       </c>
       <c r="D8">
-        <v>4.377957723784602</v>
+        <v>4.377957723784378</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>35.7151694726153</v>
       </c>
       <c r="G8">
-        <v>28.17786428855155</v>
+        <v>28.17786428855153</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14.73571981269592</v>
+        <v>14.73571981269599</v>
       </c>
       <c r="K8">
-        <v>12.59764976797329</v>
+        <v>12.5976497679733</v>
       </c>
       <c r="L8">
         <v>15.72991692765435</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.585754798112</v>
+        <v>20.58575479811198</v>
       </c>
       <c r="C9">
-        <v>10.83028176194385</v>
+        <v>10.83028176194419</v>
       </c>
       <c r="D9">
-        <v>4.298202822222287</v>
+        <v>4.298202822222098</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.15175870146387</v>
+        <v>40.15175870146371</v>
       </c>
       <c r="G9">
-        <v>31.31678564086288</v>
+        <v>31.31678564086275</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17.0173791851991</v>
+        <v>17.01737918519918</v>
       </c>
       <c r="K9">
-        <v>14.36992314069689</v>
+        <v>14.36992314069687</v>
       </c>
       <c r="L9">
-        <v>18.37106188067829</v>
+        <v>18.37106188067826</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.58132769139621</v>
+        <v>22.58132769139619</v>
       </c>
       <c r="C10">
-        <v>11.63585415276278</v>
+        <v>11.63585415276317</v>
       </c>
       <c r="D10">
-        <v>4.24543206609676</v>
+        <v>4.245432066096751</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>18.56020233482196</v>
+        <v>18.56020233482202</v>
       </c>
       <c r="K10">
-        <v>15.84694347890417</v>
+        <v>15.84694347890416</v>
       </c>
       <c r="L10">
-        <v>20.16375408945769</v>
+        <v>20.16375408945766</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.45308970364821</v>
+        <v>23.45308970364819</v>
       </c>
       <c r="C11">
-        <v>11.99023792147266</v>
+        <v>11.99023792147259</v>
       </c>
       <c r="D11">
-        <v>4.223043300081796</v>
+        <v>4.223043300081816</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.755383180683</v>
+        <v>44.75538318068279</v>
       </c>
       <c r="G11">
-        <v>34.62794291318819</v>
+        <v>34.62794291318802</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>19.23506278465188</v>
+        <v>19.23506278465189</v>
       </c>
       <c r="K11">
-        <v>16.49743696463814</v>
+        <v>16.49743696463808</v>
       </c>
       <c r="L11">
-        <v>20.95015695818965</v>
+        <v>20.95015695818958</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.77828815302782</v>
+        <v>23.77828815302788</v>
       </c>
       <c r="C12">
-        <v>12.122777758051</v>
+        <v>12.12277775805107</v>
       </c>
       <c r="D12">
-        <v>4.214834921207413</v>
+        <v>4.214834921207473</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.29356222133727</v>
+        <v>45.29356222133731</v>
       </c>
       <c r="G12">
-        <v>35.01791882435043</v>
+        <v>35.01791882435047</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19.48692792629395</v>
+        <v>19.48692792629398</v>
       </c>
       <c r="K12">
-        <v>16.7409454168378</v>
+        <v>16.74094541683782</v>
       </c>
       <c r="L12">
-        <v>21.24404164581109</v>
+        <v>21.24404164581113</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.70846510771652</v>
+        <v>23.70846510771644</v>
       </c>
       <c r="C13">
-        <v>12.09430519931646</v>
+        <v>12.09430519931647</v>
       </c>
       <c r="D13">
-        <v>4.216590073011328</v>
+        <v>4.216590073011309</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.17775547842377</v>
+        <v>45.17775547842372</v>
       </c>
       <c r="G13">
-        <v>34.93395673243626</v>
+        <v>34.93395673243624</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>19.43284506616627</v>
+        <v>19.43284506616618</v>
       </c>
       <c r="K13">
-        <v>16.68862239870934</v>
+        <v>16.68862239870929</v>
       </c>
       <c r="L13">
-        <v>21.18091740733221</v>
+        <v>21.18091740733212</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.47994094495552</v>
+        <v>23.47994094495536</v>
       </c>
       <c r="C14">
-        <v>12.00117475627786</v>
+        <v>12.00117475627773</v>
       </c>
       <c r="D14">
-        <v>4.222362346017618</v>
+        <v>4.222362346017638</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.7997048542791</v>
+        <v>44.79970485427903</v>
       </c>
       <c r="G14">
-        <v>34.66003856582502</v>
+        <v>34.66003856582498</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>19.25585665170007</v>
+        <v>19.25585665169994</v>
       </c>
       <c r="K14">
-        <v>16.51752544472854</v>
+        <v>16.51752544472852</v>
       </c>
       <c r="L14">
-        <v>20.9744116667257</v>
+        <v>20.97441166672562</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.33933102207899</v>
+        <v>23.339331022079</v>
       </c>
       <c r="C15">
-        <v>11.94391645961494</v>
+        <v>11.94391645961481</v>
       </c>
       <c r="D15">
-        <v>4.225934389960751</v>
+        <v>4.22593438996085</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.56784108010882</v>
+        <v>44.56784108010895</v>
       </c>
       <c r="G15">
-        <v>34.49217566355757</v>
+        <v>34.49217566355768</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.14697168339774</v>
+        <v>19.14697168339773</v>
       </c>
       <c r="K15">
-        <v>16.41236475231172</v>
+        <v>16.4123647523117</v>
       </c>
       <c r="L15">
-        <v>20.84742064568023</v>
+        <v>20.8474206456802</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.52365268813183</v>
+        <v>22.52365268813184</v>
       </c>
       <c r="C16">
-        <v>11.61245767068131</v>
+        <v>11.61245767068154</v>
       </c>
       <c r="D16">
-        <v>4.246930784839574</v>
+        <v>4.246930784839545</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.2343871221358</v>
+        <v>43.23438712213568</v>
       </c>
       <c r="G16">
-        <v>33.52886185779235</v>
+        <v>33.52886185779222</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>18.51557136557</v>
+        <v>18.51557136557001</v>
       </c>
       <c r="K16">
-        <v>15.80402278133033</v>
+        <v>15.80402278133035</v>
       </c>
       <c r="L16">
-        <v>20.11179801555367</v>
+        <v>20.11179801555368</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.01420913214462</v>
+        <v>22.01420913214463</v>
       </c>
       <c r="C17">
-        <v>11.4060759746276</v>
+        <v>11.4060759746274</v>
       </c>
       <c r="D17">
-        <v>4.260249853036512</v>
+        <v>4.2602498530366</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.41196233988765</v>
+        <v>42.41196233988772</v>
       </c>
       <c r="G17">
-        <v>32.93657058961259</v>
+        <v>32.93657058961268</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.1214448694561</v>
+        <v>18.12144486945606</v>
       </c>
       <c r="K17">
-        <v>15.42551516155291</v>
+        <v>15.42551516155293</v>
       </c>
       <c r="L17">
-        <v>19.65324946133138</v>
+        <v>19.65324946133139</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,19 +1023,19 @@
         <v>21.71778163129073</v>
       </c>
       <c r="C18">
-        <v>11.28622830064233</v>
+        <v>11.28622830064239</v>
       </c>
       <c r="D18">
-        <v>4.268060206234992</v>
+        <v>4.268060206234982</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.93725840458387</v>
+        <v>41.93725840458396</v>
       </c>
       <c r="G18">
-        <v>32.59537620730128</v>
+        <v>32.59537620730134</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>17.89220166262469</v>
+        <v>17.89220166262471</v>
       </c>
       <c r="K18">
-        <v>15.20577493973947</v>
+        <v>15.20577493973949</v>
       </c>
       <c r="L18">
-        <v>19.38674688644592</v>
+        <v>19.38674688644594</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.61682333245907</v>
+        <v>21.61682333245899</v>
       </c>
       <c r="C19">
-        <v>11.24545163131672</v>
+        <v>11.24545163131681</v>
       </c>
       <c r="D19">
-        <v>4.270729325899236</v>
+        <v>4.270729325899288</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.77624186200916</v>
+        <v>41.77624186200908</v>
       </c>
       <c r="G19">
-        <v>32.47976122797017</v>
+        <v>32.47976122797009</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>17.8141401767076</v>
+        <v>17.81414017670761</v>
       </c>
       <c r="K19">
-        <v>15.13101820157025</v>
+        <v>15.13101820157027</v>
       </c>
       <c r="L19">
-        <v>19.29603221787403</v>
+        <v>19.29603221787402</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.06879128136222</v>
+        <v>22.06879128136226</v>
       </c>
       <c r="C20">
-        <v>11.42816337858219</v>
+        <v>11.42816337858211</v>
       </c>
       <c r="D20">
-        <v>4.258816287438235</v>
+        <v>4.258816287438095</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.49968243734434</v>
+        <v>42.49968243734445</v>
       </c>
       <c r="G20">
-        <v>32.9996746177122</v>
+        <v>32.99967461771229</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.16366314744755</v>
+        <v>18.16366314744759</v>
       </c>
       <c r="K20">
-        <v>15.46601654295495</v>
+        <v>15.46601654295501</v>
       </c>
       <c r="L20">
-        <v>19.70234624610194</v>
+        <v>19.70234624610201</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.54719528405998</v>
+        <v>23.54719528405995</v>
       </c>
       <c r="C21">
-        <v>12.0285736906228</v>
+        <v>12.02857369062273</v>
       </c>
       <c r="D21">
-        <v>4.220659235128588</v>
+        <v>4.22065923512849</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.91080885614912</v>
+        <v>44.9108088561491</v>
       </c>
       <c r="G21">
         <v>34.74051131681028</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>19.30794093885816</v>
+        <v>19.30794093885811</v>
       </c>
       <c r="K21">
         <v>16.5678550423351</v>
       </c>
       <c r="L21">
-        <v>21.03517112667107</v>
+        <v>21.03517112667104</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.48489144601558</v>
+        <v>24.48489144601562</v>
       </c>
       <c r="C22">
         <v>12.41136509762834</v>
       </c>
       <c r="D22">
-        <v>4.197316598158654</v>
+        <v>4.197316598158754</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.03439305908922</v>
+        <v>20.03439305908925</v>
       </c>
       <c r="K22">
         <v>17.27168368879271</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.98694052134088</v>
+        <v>23.986940521341</v>
       </c>
       <c r="C23">
-        <v>12.20791055420603</v>
+        <v>12.20791055420583</v>
       </c>
       <c r="D23">
-        <v>4.209614756805231</v>
+        <v>4.209614756805163</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.6404478058919</v>
+        <v>45.64044780589182</v>
       </c>
       <c r="G23">
-        <v>35.26956615215646</v>
+        <v>35.26956615215639</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>19.6485602192902</v>
+        <v>19.64856021929029</v>
       </c>
       <c r="K23">
-        <v>16.89743220987121</v>
+        <v>16.89743220987119</v>
       </c>
       <c r="L23">
-        <v>21.43275647232864</v>
+        <v>21.43275647232869</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.04412574249037</v>
+        <v>22.04412574249045</v>
       </c>
       <c r="C24">
         <v>11.41818139450495</v>
       </c>
       <c r="D24">
-        <v>4.259463928475944</v>
+        <v>4.259463928475967</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.46003005236854</v>
+        <v>42.46003005236859</v>
       </c>
       <c r="G24">
-        <v>32.97114740753301</v>
+        <v>32.97114740753307</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.14458454652548</v>
+        <v>18.14458454652552</v>
       </c>
       <c r="K24">
-        <v>15.44771252560294</v>
+        <v>15.44771252560301</v>
       </c>
       <c r="L24">
-        <v>19.68015857097814</v>
+        <v>19.6801585709782</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.81731860611274</v>
+        <v>19.81731860611282</v>
       </c>
       <c r="C25">
-        <v>10.52249143467937</v>
+        <v>10.52249143467948</v>
       </c>
       <c r="D25">
-        <v>4.318858725329347</v>
+        <v>4.318858725329464</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.96597599569277</v>
+        <v>38.96597599569276</v>
       </c>
       <c r="G25">
-        <v>30.4721268982055</v>
+        <v>30.47212689820547</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.42417601112123</v>
+        <v>16.42417601112128</v>
       </c>
       <c r="K25">
-        <v>13.8910564650345</v>
+        <v>13.89105646503454</v>
       </c>
       <c r="L25">
-        <v>17.68342235402928</v>
+        <v>17.68342235402933</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.05621739751914</v>
+        <v>18.05575980411022</v>
       </c>
       <c r="C2">
-        <v>9.823168050928018</v>
+        <v>9.822347725418432</v>
       </c>
       <c r="D2">
-        <v>4.366368954755435</v>
+        <v>4.361649776482074</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.33739384370156</v>
+        <v>36.30114675128549</v>
       </c>
       <c r="G2">
-        <v>28.61432938943597</v>
+        <v>27.34517248016732</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>28.65126115016561</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.06703110490611</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.84615221293871</v>
+        <v>15.0664438644714</v>
       </c>
       <c r="L2">
-        <v>16.11288086539899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12.84602593015601</v>
+      </c>
+      <c r="M2">
+        <v>16.11267076756412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.78308474427947</v>
+        <v>16.7828323997795</v>
       </c>
       <c r="C3">
-        <v>9.323807328238543</v>
+        <v>9.323331894198589</v>
       </c>
       <c r="D3">
-        <v>4.400520646871404</v>
+        <v>4.396162579646949</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.52377760668923</v>
+        <v>34.4899866404216</v>
       </c>
       <c r="G3">
-        <v>27.34613842595454</v>
+        <v>25.85791588643056</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>27.38190680286553</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.08844116659804</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12.12032418397779</v>
+        <v>14.08810625660569</v>
       </c>
       <c r="L3">
-        <v>14.98207041085372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>12.12024969217353</v>
+      </c>
+      <c r="M3">
+        <v>14.98195600457459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.96096190819265</v>
+        <v>15.96083131647589</v>
       </c>
       <c r="C4">
-        <v>9.004614692216732</v>
+        <v>9.004360289075256</v>
       </c>
       <c r="D4">
-        <v>4.422347027946659</v>
+        <v>4.418203094367026</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.39622191830934</v>
+        <v>33.36400966541012</v>
       </c>
       <c r="G4">
-        <v>26.56424750140825</v>
+        <v>24.92815563652484</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>26.59934532424228</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.45791092486932</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>11.66648377563217</v>
+        <v>13.4577334588894</v>
       </c>
       <c r="L4">
-        <v>14.25385607696738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>11.66644332006114</v>
+      </c>
+      <c r="M4">
+        <v>14.25379731441528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.61562025695991</v>
+        <v>15.6155384119753</v>
       </c>
       <c r="C5">
-        <v>8.871388339062996</v>
+        <v>8.871226594324453</v>
       </c>
       <c r="D5">
-        <v>4.431443316396446</v>
+        <v>4.427384974237735</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.93361353248195</v>
+        <v>32.90206247235207</v>
       </c>
       <c r="G5">
-        <v>26.24507426279151</v>
+        <v>24.54539088971744</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>26.27991042828658</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.1934257283753</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>11.47961705178079</v>
+        <v>13.19331334066175</v>
       </c>
       <c r="L5">
-        <v>13.9484293838661</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>11.47959115132979</v>
+      </c>
+      <c r="M5">
+        <v>13.94839266598992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.55764880240719</v>
+        <v>15.55757500496892</v>
       </c>
       <c r="C6">
-        <v>8.849076429201901</v>
+        <v>8.848930233925081</v>
       </c>
       <c r="D6">
-        <v>4.432965576316306</v>
+        <v>4.428921352386469</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.85662280915309</v>
+        <v>32.82518261704369</v>
       </c>
       <c r="G6">
-        <v>26.19205152735615</v>
+        <v>24.48160890670774</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>26.22684496252201</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.14905087122338</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>11.44847664791411</v>
+        <v>13.14894935367665</v>
       </c>
       <c r="L6">
-        <v>13.89718547372073</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>11.44845320913243</v>
+      </c>
+      <c r="M6">
+        <v>13.89715238245977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.95634649703895</v>
+        <v>15.9562165659967</v>
       </c>
       <c r="C7">
-        <v>9.002830693830955</v>
+        <v>9.002577529505759</v>
       </c>
       <c r="D7">
-        <v>4.422468903022779</v>
+        <v>4.41832613021554</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.38999505736593</v>
+        <v>33.35779164926421</v>
       </c>
       <c r="G7">
-        <v>26.55994484432068</v>
+        <v>24.92300880099775</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>26.59503909061129</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.45437460120341</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>11.66397120105974</v>
+        <v>13.45419800878989</v>
       </c>
       <c r="L7">
-        <v>14.249772295376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>11.66393093885427</v>
+      </c>
+      <c r="M7">
+        <v>14.24971383248804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.62553154120099</v>
+        <v>17.6251457341098</v>
       </c>
       <c r="C8">
-        <v>9.653601923677988</v>
+        <v>9.652898749923301</v>
       </c>
       <c r="D8">
-        <v>4.377957723784378</v>
+        <v>4.373364780547565</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.7151694726153</v>
+        <v>35.67975470038833</v>
       </c>
       <c r="G8">
-        <v>28.17786428855153</v>
+        <v>26.8359533724607</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>28.21438618677513</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14.73571981269599</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>12.5976497679733</v>
+        <v>14.73521922628238</v>
       </c>
       <c r="L8">
-        <v>15.72991692765435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>12.59754095512773</v>
+      </c>
+      <c r="M8">
+        <v>15.72974056571866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.58575479811198</v>
+        <v>20.58482285073068</v>
       </c>
       <c r="C9">
-        <v>10.83028176194419</v>
+        <v>10.82875773978114</v>
       </c>
       <c r="D9">
-        <v>4.298202822222098</v>
+        <v>4.292655270010729</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.15175870146371</v>
+        <v>40.11059378117744</v>
       </c>
       <c r="G9">
-        <v>31.31678564086275</v>
+        <v>30.44763729898584</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>31.35642882107644</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17.01737918519918</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>14.36992314069687</v>
+        <v>17.01625024668546</v>
       </c>
       <c r="L9">
-        <v>18.37106188067826</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>14.36985398186316</v>
+      </c>
+      <c r="M9">
+        <v>18.37062193390665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.58132769139619</v>
+        <v>22.57995050272966</v>
       </c>
       <c r="C10">
-        <v>11.63585415276317</v>
+        <v>11.63374722795855</v>
       </c>
       <c r="D10">
-        <v>4.245432066096751</v>
+        <v>4.239121952787986</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.32800897636226</v>
+        <v>43.28292289118703</v>
       </c>
       <c r="G10">
-        <v>33.5963776430002</v>
+        <v>33.01184003127209</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>33.63847792622979</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>18.56020233482202</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>15.84694347890416</v>
+        <v>18.55859722446763</v>
       </c>
       <c r="L10">
-        <v>20.16375408945766</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>15.8468215367059</v>
+      </c>
+      <c r="M10">
+        <v>20.16308824706902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.45308970364819</v>
+        <v>23.45149578986288</v>
       </c>
       <c r="C11">
-        <v>11.99023792147259</v>
+        <v>11.98786598193654</v>
       </c>
       <c r="D11">
-        <v>4.223043300081816</v>
+        <v>4.216368766841513</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.75538318068279</v>
+        <v>44.70856926145976</v>
       </c>
       <c r="G11">
-        <v>34.62794291318802</v>
+        <v>34.15991434784956</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>34.67119061432173</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>19.23506278465189</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>16.49743696463808</v>
+        <v>19.23323327740082</v>
       </c>
       <c r="L11">
-        <v>20.95015695818958</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>16.49728482375275</v>
+      </c>
+      <c r="M11">
+        <v>20.94937789244219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.77828815302788</v>
+        <v>23.77660966093041</v>
       </c>
       <c r="C12">
-        <v>12.12277775805107</v>
+        <v>12.12030508899639</v>
       </c>
       <c r="D12">
-        <v>4.214834921207473</v>
+        <v>4.208019489463821</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.29356222133731</v>
+        <v>45.24610100181902</v>
       </c>
       <c r="G12">
-        <v>35.01791882435047</v>
+        <v>34.5922092795761</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>35.06160485507063</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19.48692792629398</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>16.74094541683782</v>
+        <v>19.48501188128057</v>
       </c>
       <c r="L12">
-        <v>21.24404164581113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>16.74078071300396</v>
+      </c>
+      <c r="M12">
+        <v>21.2432178425225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.70846510771644</v>
+        <v>23.7068049510703</v>
       </c>
       <c r="C13">
-        <v>12.09430519931647</v>
+        <v>12.09185424764241</v>
       </c>
       <c r="D13">
-        <v>4.216590073011309</v>
+        <v>4.209805121641224</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.17775547842372</v>
+        <v>45.13043337452707</v>
       </c>
       <c r="G13">
-        <v>34.93395673243624</v>
+        <v>34.49921204719386</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>34.9775481973357</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>19.43284506616618</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>16.68862239870929</v>
+        <v>19.43094773592286</v>
       </c>
       <c r="L13">
-        <v>21.18091740733212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>16.68846045501951</v>
+      </c>
+      <c r="M13">
+        <v>21.18010332836229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.47994094495536</v>
+        <v>23.47834012614481</v>
       </c>
       <c r="C14">
-        <v>12.00117475627773</v>
+        <v>11.99879453960582</v>
       </c>
       <c r="D14">
-        <v>4.222362346017638</v>
+        <v>4.215676281382794</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.79970485427903</v>
+        <v>44.75283754787049</v>
       </c>
       <c r="G14">
-        <v>34.66003856582498</v>
+        <v>34.19552731584783</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>34.70332225424359</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>19.25585665169994</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>16.51752544472852</v>
+        <v>19.25402005904695</v>
       </c>
       <c r="L14">
-        <v>20.97441166672562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>16.51737229442326</v>
+      </c>
+      <c r="M14">
+        <v>20.97362896001928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.339331022079</v>
+        <v>23.33776620724621</v>
       </c>
       <c r="C15">
-        <v>11.94391645961481</v>
+        <v>11.94157950886359</v>
       </c>
       <c r="D15">
-        <v>4.22593438996085</v>
+        <v>4.219308506799663</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.56784108010895</v>
+        <v>44.52125322632451</v>
       </c>
       <c r="G15">
-        <v>34.49217566355768</v>
+        <v>34.00919902450722</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>34.53527131619355</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.14697168339773</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>16.4123647523117</v>
+        <v>19.14517207637228</v>
       </c>
       <c r="L15">
-        <v>20.8474206456802</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>16.41221683345728</v>
+      </c>
+      <c r="M15">
+        <v>20.84665690104598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.52365268813184</v>
+        <v>22.52228933928154</v>
       </c>
       <c r="C16">
-        <v>11.61245767068154</v>
+        <v>11.61036803547527</v>
       </c>
       <c r="D16">
-        <v>4.246930784839545</v>
+        <v>4.240644102677294</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.23438712213568</v>
+        <v>43.1894149952676</v>
       </c>
       <c r="G16">
-        <v>33.52886185779222</v>
+        <v>32.93645459786577</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>33.570887712972</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>18.51557136557001</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>15.80402278133035</v>
+        <v>18.51398072688919</v>
       </c>
       <c r="L16">
-        <v>20.11179801555368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>15.80390266900464</v>
+      </c>
+      <c r="M16">
+        <v>20.11113933300388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.01420913214463</v>
+        <v>22.01296543463549</v>
       </c>
       <c r="C17">
-        <v>11.4060759746274</v>
+        <v>11.4041378308168</v>
       </c>
       <c r="D17">
-        <v>4.2602498530366</v>
+        <v>4.254166508870894</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.41196233988772</v>
+        <v>42.36799504923107</v>
       </c>
       <c r="G17">
-        <v>32.93657058961268</v>
+        <v>32.27375492788788</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>32.97794743020102</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.12144486945606</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>15.42551516155293</v>
+        <v>18.11998013537194</v>
       </c>
       <c r="L17">
-        <v>19.65324946133139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>15.42541036910527</v>
+      </c>
+      <c r="M17">
+        <v>19.65265231753235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.71778163129073</v>
+        <v>21.71660545165654</v>
       </c>
       <c r="C18">
-        <v>11.28622830064239</v>
+        <v>11.28437733099277</v>
       </c>
       <c r="D18">
-        <v>4.268060206234982</v>
+        <v>4.262092191408695</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.93725840458396</v>
+        <v>41.89387440722749</v>
       </c>
       <c r="G18">
-        <v>32.59537620730134</v>
+        <v>31.89083928246501</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>32.63638256758097</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>17.89220166262471</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>15.20577493973949</v>
+        <v>17.89080864267725</v>
       </c>
       <c r="L18">
-        <v>19.38674688644594</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>15.20567839333128</v>
+      </c>
+      <c r="M18">
+        <v>19.38618417836456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.61682333245899</v>
+        <v>21.61566980252639</v>
       </c>
       <c r="C19">
-        <v>11.24545163131681</v>
+        <v>11.24363019557551</v>
       </c>
       <c r="D19">
-        <v>4.270729325899288</v>
+        <v>4.264800091587388</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.77624186200908</v>
+        <v>41.73305630324809</v>
       </c>
       <c r="G19">
-        <v>32.47976122797009</v>
+        <v>31.7608860861593</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32.52064264779826</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>17.81414017670761</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>15.13101820157027</v>
+        <v>17.81277132976185</v>
       </c>
       <c r="L19">
-        <v>19.29603221787402</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>15.13092435644108</v>
+      </c>
+      <c r="M19">
+        <v>19.29548101411697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.06879128136226</v>
+        <v>22.06753498469958</v>
       </c>
       <c r="C20">
-        <v>11.42816337858211</v>
+        <v>11.42620910679816</v>
       </c>
       <c r="D20">
-        <v>4.258816287438095</v>
+        <v>4.252711468473143</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.49968243734445</v>
+        <v>42.45560763463941</v>
       </c>
       <c r="G20">
-        <v>32.99967461771229</v>
+        <v>32.34448030678181</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>33.04112025892662</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.16366314744759</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>15.46601654295501</v>
+        <v>18.16218508636656</v>
       </c>
       <c r="L20">
-        <v>19.70234624610201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>15.46591017977459</v>
+      </c>
+      <c r="M20">
+        <v>19.70174265310352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.54719528405995</v>
+        <v>23.54557710855581</v>
       </c>
       <c r="C21">
-        <v>12.02857369062273</v>
+        <v>12.02617271092032</v>
       </c>
       <c r="D21">
-        <v>4.22065923512849</v>
+        <v>4.213944206954142</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.9108088561491</v>
+        <v>44.86380778429972</v>
       </c>
       <c r="G21">
-        <v>34.74051131681028</v>
+        <v>34.28479156390781</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>34.78388530603697</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>19.30794093885811</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>16.5678550423351</v>
+        <v>19.30608655239958</v>
       </c>
       <c r="L21">
-        <v>21.03517112667104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>16.56769934194941</v>
+      </c>
+      <c r="M21">
+        <v>21.03437925891652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.48489144601562</v>
+        <v>24.48302185284377</v>
       </c>
       <c r="C22">
-        <v>12.41136509762834</v>
+        <v>12.40866976569328</v>
       </c>
       <c r="D22">
-        <v>4.197316598158754</v>
+        <v>4.190185659372336</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.47317085923131</v>
+        <v>46.42429741896085</v>
       </c>
       <c r="G22">
-        <v>35.87455143311688</v>
+        <v>35.53873772304069</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>35.91920784499893</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.03439305908925</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>17.27168368879271</v>
+        <v>20.03228335225463</v>
       </c>
       <c r="L22">
-        <v>21.88361882327565</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>17.2714890217679</v>
+      </c>
+      <c r="M22">
+        <v>21.88269283156665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.986940521341</v>
+        <v>23.98520665712632</v>
       </c>
       <c r="C23">
-        <v>12.20791055420583</v>
+        <v>12.20537268771778</v>
       </c>
       <c r="D23">
-        <v>4.209614756805163</v>
+        <v>4.202707495339668</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.64044780589182</v>
+        <v>45.5925704155849</v>
       </c>
       <c r="G23">
-        <v>35.26956615215639</v>
+        <v>34.87069159204189</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>35.31353621907664</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>19.64856021929029</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>16.89743220987119</v>
+        <v>19.64658780372205</v>
       </c>
       <c r="L23">
-        <v>21.43275647232869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>16.89725904800027</v>
+      </c>
+      <c r="M23">
+        <v>21.4319032160852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.04412574249045</v>
+        <v>22.04287514583036</v>
       </c>
       <c r="C24">
-        <v>11.41818139450495</v>
+        <v>11.41623441390012</v>
       </c>
       <c r="D24">
-        <v>4.259463928475967</v>
+        <v>4.253368823136585</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.46003005236859</v>
+        <v>42.41600383834105</v>
       </c>
       <c r="G24">
-        <v>32.97114740753307</v>
+        <v>32.31251135887737</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>33.01256193571238</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.14458454652552</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>15.44771252560301</v>
+        <v>18.1431125126342</v>
       </c>
       <c r="L24">
-        <v>19.6801585709782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>15.44760687428289</v>
+      </c>
+      <c r="M24">
+        <v>19.67955789657623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.81731860611282</v>
+        <v>19.81654075284715</v>
       </c>
       <c r="C25">
-        <v>10.52249143467948</v>
+        <v>10.52118460212822</v>
       </c>
       <c r="D25">
-        <v>4.318858725329464</v>
+        <v>4.31357882627611</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.96597599569276</v>
+        <v>38.92631056353935</v>
       </c>
       <c r="G25">
-        <v>30.47212689820547</v>
+        <v>29.48628810067567</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>30.51089471939186</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.42417601112128</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>13.89105646503454</v>
+        <v>16.42321817039864</v>
       </c>
       <c r="L25">
-        <v>17.68342235402933</v>
+        <v>13.89085778913257</v>
+      </c>
+      <c r="M25">
+        <v>17.68305835507169</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.05575980411022</v>
+        <v>22.54995291730854</v>
       </c>
       <c r="C2">
-        <v>9.822347725418432</v>
+        <v>15.82978524665788</v>
       </c>
       <c r="D2">
-        <v>4.361649776482074</v>
+        <v>4.386915179503172</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.30114675128549</v>
+        <v>34.32427761963527</v>
       </c>
       <c r="G2">
-        <v>27.34517248016732</v>
+        <v>2.081090605179968</v>
       </c>
       <c r="H2">
-        <v>28.65126115016561</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.265287736017347</v>
       </c>
       <c r="K2">
-        <v>15.0664438644714</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>12.84602593015601</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16.11267076756412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16.47626119724173</v>
+      </c>
+      <c r="N2">
+        <v>12.54517471836533</v>
+      </c>
+      <c r="O2">
+        <v>24.73734862784432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.7828323997795</v>
+        <v>20.95365693123517</v>
       </c>
       <c r="C3">
-        <v>9.323331894198589</v>
+        <v>14.70897271223813</v>
       </c>
       <c r="D3">
-        <v>4.396162579646949</v>
+        <v>4.313396697587347</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.4899866404216</v>
+        <v>33.08844944448818</v>
       </c>
       <c r="G3">
-        <v>25.85791588643056</v>
+        <v>2.090982743166875</v>
       </c>
       <c r="H3">
-        <v>27.38190680286553</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.269457170946757</v>
       </c>
       <c r="K3">
-        <v>14.08810625660569</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.12024969217353</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.98195600457459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.64737581880139</v>
+      </c>
+      <c r="N3">
+        <v>12.81926054831449</v>
+      </c>
+      <c r="O3">
+        <v>23.94074017748998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.96083131647589</v>
+        <v>19.92290436040732</v>
       </c>
       <c r="C4">
-        <v>9.004360289075256</v>
+        <v>13.98463215183542</v>
       </c>
       <c r="D4">
-        <v>4.418203094367026</v>
+        <v>4.268847765064789</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.36400966541012</v>
+        <v>32.345404065171</v>
       </c>
       <c r="G4">
-        <v>24.92815563652484</v>
+        <v>2.097201721733854</v>
       </c>
       <c r="H4">
-        <v>26.59934532424228</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.275232649865778</v>
       </c>
       <c r="K4">
-        <v>13.4577334588894</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>11.66644332006114</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>14.25379731441528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.12761559765548</v>
+      </c>
+      <c r="N4">
+        <v>12.99035386882119</v>
+      </c>
+      <c r="O4">
+        <v>23.46729630906907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.6155384119753</v>
+        <v>19.49000469146285</v>
       </c>
       <c r="C5">
-        <v>8.871226594324453</v>
+        <v>13.68024298639012</v>
       </c>
       <c r="D5">
-        <v>4.427384974237735</v>
+        <v>4.250853893414035</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.90206247235207</v>
+        <v>32.0467915405432</v>
       </c>
       <c r="G5">
-        <v>24.54539088971744</v>
+        <v>2.099774679858518</v>
       </c>
       <c r="H5">
-        <v>26.27991042828658</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.278366473878235</v>
       </c>
       <c r="K5">
-        <v>13.19331334066175</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>11.47959115132979</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.94839266598992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.91332084471602</v>
+      </c>
+      <c r="N5">
+        <v>13.06082413055043</v>
+      </c>
+      <c r="O5">
+        <v>23.27838502499823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.55757500496892</v>
+        <v>19.41734187482111</v>
       </c>
       <c r="C6">
-        <v>8.848930233925081</v>
+        <v>13.62913941934248</v>
       </c>
       <c r="D6">
-        <v>4.428921352386469</v>
+        <v>4.247876042741158</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.82518261704369</v>
+        <v>31.99746677710538</v>
       </c>
       <c r="G6">
-        <v>24.48160890670774</v>
+        <v>2.100204313930345</v>
       </c>
       <c r="H6">
-        <v>26.22684496252201</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.278933166693462</v>
       </c>
       <c r="K6">
-        <v>13.14894935367665</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>11.44845320913243</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.89715238245977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.87759482752496</v>
+      </c>
+      <c r="N6">
+        <v>13.07257209345551</v>
+      </c>
+      <c r="O6">
+        <v>23.24726167052058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.9562165659967</v>
+        <v>19.91711835211273</v>
       </c>
       <c r="C7">
-        <v>9.002577529505759</v>
+        <v>13.98056451930056</v>
       </c>
       <c r="D7">
-        <v>4.41832613021554</v>
+        <v>4.268604429388455</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.35779164926421</v>
+        <v>32.34135962026836</v>
       </c>
       <c r="G7">
-        <v>24.92300880099775</v>
+        <v>2.097236262199984</v>
       </c>
       <c r="H7">
-        <v>26.59503909061129</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.275271790857651</v>
       </c>
       <c r="K7">
-        <v>13.45419800878989</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>11.66393093885427</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>14.24971383248804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.12473527543314</v>
+      </c>
+      <c r="N7">
+        <v>12.99130116942499</v>
+      </c>
+      <c r="O7">
+        <v>23.46473219776541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.6251457341098</v>
+        <v>22.00997187348436</v>
       </c>
       <c r="C8">
-        <v>9.652898749923301</v>
+        <v>15.45075735155104</v>
       </c>
       <c r="D8">
-        <v>4.373364780547565</v>
+        <v>4.361449812899681</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.67975470038833</v>
+        <v>33.89501857389397</v>
       </c>
       <c r="G8">
-        <v>26.8359533724607</v>
+        <v>2.084472643292702</v>
       </c>
       <c r="H8">
-        <v>28.21438618677513</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.266040568518075</v>
       </c>
       <c r="K8">
-        <v>14.73521922628238</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>12.59754095512773</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.72974056571866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.19283225176248</v>
+      </c>
+      <c r="N8">
+        <v>12.63912439837354</v>
+      </c>
+      <c r="O8">
+        <v>24.45946934323706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.58482285073068</v>
+        <v>25.71926912923374</v>
       </c>
       <c r="C9">
-        <v>10.82875773978114</v>
+        <v>18.05286011287553</v>
       </c>
       <c r="D9">
-        <v>4.292655270010729</v>
+        <v>4.547762642523221</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.11059378117744</v>
+        <v>37.05879180638509</v>
       </c>
       <c r="G9">
-        <v>30.44763729898584</v>
+        <v>2.0604877957639</v>
       </c>
       <c r="H9">
-        <v>31.35642882107644</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.274795158681836</v>
       </c>
       <c r="K9">
-        <v>17.01625024668546</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>14.36985398186316</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>18.37062193390665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>18.19375932708515</v>
+      </c>
+      <c r="N9">
+        <v>11.96868411935451</v>
+      </c>
+      <c r="O9">
+        <v>26.53176415532634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.57995050272966</v>
+        <v>28.21475965287311</v>
       </c>
       <c r="C10">
-        <v>11.63374722795855</v>
+        <v>19.80234940431881</v>
       </c>
       <c r="D10">
-        <v>4.239121952787986</v>
+        <v>4.686729724386841</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.28292289118703</v>
+        <v>39.4475415248132</v>
       </c>
       <c r="G10">
-        <v>33.01184003127209</v>
+        <v>2.043337538193136</v>
       </c>
       <c r="H10">
-        <v>33.63847792622979</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.299582995828231</v>
       </c>
       <c r="K10">
-        <v>18.55859722446763</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>15.8468215367059</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>20.16308824706902</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>19.83980836927815</v>
+      </c>
+      <c r="N10">
+        <v>11.48538635989767</v>
+      </c>
+      <c r="O10">
+        <v>28.12656529579397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.45149578986288</v>
+        <v>29.30294688403522</v>
       </c>
       <c r="C11">
-        <v>11.98786598193654</v>
+        <v>20.56521636263472</v>
       </c>
       <c r="D11">
-        <v>4.216368766841513</v>
+        <v>4.750330769474498</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.70856926145976</v>
+        <v>40.54799211975605</v>
       </c>
       <c r="G11">
-        <v>34.15991434784956</v>
+        <v>2.035595977109211</v>
       </c>
       <c r="H11">
-        <v>34.67119061432173</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.315320048298986</v>
       </c>
       <c r="K11">
-        <v>19.23323327740082</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>16.49728482375275</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>20.94937789244219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>20.60233406900106</v>
+      </c>
+      <c r="N11">
+        <v>11.26683696099485</v>
+      </c>
+      <c r="O11">
+        <v>28.86809781895872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.77660966093041</v>
+        <v>29.7085168426729</v>
       </c>
       <c r="C12">
-        <v>12.12030508899639</v>
+        <v>20.84955588110459</v>
       </c>
       <c r="D12">
-        <v>4.208019489463821</v>
+        <v>4.77446699559942</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.24610100181902</v>
+        <v>40.9667667416703</v>
       </c>
       <c r="G12">
-        <v>34.5922092795761</v>
+        <v>2.032669147277346</v>
       </c>
       <c r="H12">
-        <v>35.06160485507063</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.3219638294746</v>
       </c>
       <c r="K12">
-        <v>19.48501188128057</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>16.74078071300396</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>21.2432178425225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>20.88649351947243</v>
+      </c>
+      <c r="N12">
+        <v>11.18420610619064</v>
+      </c>
+      <c r="O12">
+        <v>29.15129052134602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.7068049510703</v>
+        <v>29.62145486402969</v>
       </c>
       <c r="C13">
-        <v>12.09185424764241</v>
+        <v>20.78851682673752</v>
       </c>
       <c r="D13">
-        <v>4.209805121641224</v>
+        <v>4.769266543234034</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.13043337452707</v>
+        <v>40.87648249603567</v>
       </c>
       <c r="G13">
-        <v>34.49921204719386</v>
+        <v>2.033299349611207</v>
       </c>
       <c r="H13">
-        <v>34.9775481973357</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.320501804616287</v>
       </c>
       <c r="K13">
-        <v>19.43094773592286</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>16.68846045501951</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>21.18010332836229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>20.82549569547731</v>
+      </c>
+      <c r="N13">
+        <v>11.20199735103398</v>
+      </c>
+      <c r="O13">
+        <v>29.0901916653667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.47834012614481</v>
+        <v>29.33644210510925</v>
       </c>
       <c r="C14">
-        <v>11.99879453960582</v>
+        <v>20.58869893566614</v>
       </c>
       <c r="D14">
-        <v>4.215676281382794</v>
+        <v>4.752315440704377</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.75283754787049</v>
+        <v>40.58240298261811</v>
       </c>
       <c r="G14">
-        <v>34.19552731584783</v>
+        <v>2.035355114401174</v>
       </c>
       <c r="H14">
-        <v>34.70332225424359</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.315852658302864</v>
       </c>
       <c r="K14">
-        <v>19.25402005904695</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>16.51737229442326</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>20.97362896001928</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>20.6258029137476</v>
+      </c>
+      <c r="N14">
+        <v>11.26003662627016</v>
+      </c>
+      <c r="O14">
+        <v>28.89134766976721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.33776620724621</v>
+        <v>29.16102489089262</v>
       </c>
       <c r="C15">
-        <v>11.94157950886359</v>
+        <v>20.4657196004753</v>
       </c>
       <c r="D15">
-        <v>4.219308506799663</v>
+        <v>4.741939106075592</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.52125322632451</v>
+        <v>40.40254246360606</v>
       </c>
       <c r="G15">
-        <v>34.00919902450722</v>
+        <v>2.036614821350936</v>
       </c>
       <c r="H15">
-        <v>34.53527131619355</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.313095403041307</v>
       </c>
       <c r="K15">
-        <v>19.14517207637228</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>16.41221683345728</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>20.84665690104598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>20.50289324626566</v>
+      </c>
+      <c r="N15">
+        <v>11.29560239555596</v>
+      </c>
+      <c r="O15">
+        <v>28.76986470089776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.52228933928154</v>
+        <v>28.14271928668409</v>
       </c>
       <c r="C16">
-        <v>11.61036803547527</v>
+        <v>19.75184726522358</v>
       </c>
       <c r="D16">
-        <v>4.240644102677294</v>
+        <v>4.682580629287079</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.1894149952676</v>
+        <v>39.37590648087972</v>
       </c>
       <c r="G16">
-        <v>32.93645459786577</v>
+        <v>2.043844353629857</v>
       </c>
       <c r="H16">
-        <v>33.570887712972</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.298647904822877</v>
       </c>
       <c r="K16">
-        <v>18.51398072688919</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>15.80390266900464</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>20.11113933300388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>19.78932203041472</v>
+      </c>
+      <c r="N16">
+        <v>11.49969037127772</v>
+      </c>
+      <c r="O16">
+        <v>28.07843315147189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.01296543463549</v>
+        <v>27.50615293762617</v>
       </c>
       <c r="C17">
-        <v>11.4041378308168</v>
+        <v>19.30559841451944</v>
       </c>
       <c r="D17">
-        <v>4.254166508870894</v>
+        <v>4.646261306550449</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.36799504923107</v>
+        <v>38.74965806663082</v>
       </c>
       <c r="G17">
-        <v>32.27375492788788</v>
+        <v>2.048292203467395</v>
       </c>
       <c r="H17">
-        <v>32.97794743020102</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.29095689701133</v>
       </c>
       <c r="K17">
-        <v>18.11998013537194</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>15.42541036910527</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>19.65265231753235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>19.34317910153127</v>
+      </c>
+      <c r="N17">
+        <v>11.62518491123451</v>
+      </c>
+      <c r="O17">
+        <v>27.65841448786665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.71660545165654</v>
+        <v>27.13557350479123</v>
       </c>
       <c r="C18">
-        <v>11.28437733099277</v>
+        <v>19.0458099900691</v>
       </c>
       <c r="D18">
-        <v>4.262092191408695</v>
+        <v>4.625407606187896</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.89387440722749</v>
+        <v>38.39074571623176</v>
       </c>
       <c r="G18">
-        <v>31.89083928246501</v>
+        <v>2.050856413789394</v>
       </c>
       <c r="H18">
-        <v>32.63638256758097</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.28695034511349</v>
       </c>
       <c r="K18">
-        <v>17.89080864267725</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>15.20567839333128</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>19.38618417836456</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19.08342585764623</v>
+      </c>
+      <c r="N18">
+        <v>11.69749254071244</v>
+      </c>
+      <c r="O18">
+        <v>27.418333452322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.61566980252639</v>
+        <v>27.00933111898463</v>
       </c>
       <c r="C19">
-        <v>11.24363019557551</v>
+        <v>18.95730879353797</v>
       </c>
       <c r="D19">
-        <v>4.264800091587388</v>
+        <v>4.618353267179851</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.73305630324809</v>
+        <v>38.26944471029806</v>
       </c>
       <c r="G19">
-        <v>31.7608860861593</v>
+        <v>2.051725740959852</v>
       </c>
       <c r="H19">
-        <v>32.52064264779826</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.285664181224444</v>
       </c>
       <c r="K19">
-        <v>17.81277132976185</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>15.13092435644108</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>19.29548101411697</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>18.99493243473166</v>
+      </c>
+      <c r="N19">
+        <v>11.72199814174976</v>
+      </c>
+      <c r="O19">
+        <v>27.33730258937572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.06753498469958</v>
+        <v>27.57437459502437</v>
       </c>
       <c r="C20">
-        <v>11.42620910679816</v>
+        <v>19.35342366373802</v>
       </c>
       <c r="D20">
-        <v>4.252711468473143</v>
+        <v>4.650123845456746</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.45560763463941</v>
+        <v>38.81618959178238</v>
       </c>
       <c r="G20">
-        <v>32.34448030678181</v>
+        <v>2.047818136003613</v>
       </c>
       <c r="H20">
-        <v>33.04112025892662</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.291732148054928</v>
       </c>
       <c r="K20">
-        <v>18.16218508636656</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>15.46591017977459</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>19.70174265310352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>19.39099580816463</v>
+      </c>
+      <c r="N20">
+        <v>11.61181313087366</v>
+      </c>
+      <c r="O20">
+        <v>27.70297025814818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.54557710855581</v>
+        <v>29.42033153354585</v>
       </c>
       <c r="C21">
-        <v>12.02617271092032</v>
+        <v>20.6475118389812</v>
       </c>
       <c r="D21">
-        <v>4.213944206954142</v>
+        <v>4.757292995094152</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.86380778429972</v>
+        <v>40.66872439129484</v>
       </c>
       <c r="G21">
-        <v>34.28479156390781</v>
+        <v>2.034751191672555</v>
       </c>
       <c r="H21">
-        <v>34.78388530603697</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.31719928708378</v>
       </c>
       <c r="K21">
-        <v>19.30608655239958</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>16.56769934194941</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>21.03437925891652</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>20.68458054259262</v>
+      </c>
+      <c r="N21">
+        <v>11.24298605743027</v>
+      </c>
+      <c r="O21">
+        <v>28.94968715526951</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.48302185284377</v>
+        <v>30.58900986198048</v>
       </c>
       <c r="C22">
-        <v>12.40866976569328</v>
+        <v>21.46691094886275</v>
       </c>
       <c r="D22">
-        <v>4.190185659372336</v>
+        <v>4.827637210345435</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.42429741896085</v>
+        <v>41.89155651404776</v>
       </c>
       <c r="G22">
-        <v>35.53873772304069</v>
+        <v>2.026236587368045</v>
       </c>
       <c r="H22">
-        <v>35.91920784499893</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.33785603525842</v>
       </c>
       <c r="K22">
-        <v>20.03228335225463</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>17.2714890217679</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>21.88269283156665</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>21.5033478540794</v>
+      </c>
+      <c r="N22">
+        <v>11.00266021079761</v>
+      </c>
+      <c r="O22">
+        <v>29.77850278872286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.98520665712632</v>
+        <v>29.96862569293075</v>
       </c>
       <c r="C23">
-        <v>12.20537268771778</v>
+        <v>21.03192195488483</v>
       </c>
       <c r="D23">
-        <v>4.202707495339668</v>
+        <v>4.790065820522589</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.5925704155849</v>
+        <v>41.23775379607195</v>
       </c>
       <c r="G23">
-        <v>34.87069159204189</v>
+        <v>2.030780092175178</v>
       </c>
       <c r="H23">
-        <v>35.31353621907664</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.326448799173537</v>
       </c>
       <c r="K23">
-        <v>19.64658780372205</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>16.89725904800027</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>21.4319032160852</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>21.06872777417156</v>
+      </c>
+      <c r="N23">
+        <v>11.13088018010787</v>
+      </c>
+      <c r="O23">
+        <v>29.33482348468919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.04287514583036</v>
+        <v>27.54354595878705</v>
       </c>
       <c r="C24">
-        <v>11.41623441390012</v>
+        <v>19.33181195674488</v>
       </c>
       <c r="D24">
-        <v>4.253368823136585</v>
+        <v>4.64837750796211</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.41600383834105</v>
+        <v>38.78610718580447</v>
       </c>
       <c r="G24">
-        <v>32.31251135887737</v>
+        <v>2.048032439554511</v>
       </c>
       <c r="H24">
-        <v>33.01256193571238</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.291380367288108</v>
       </c>
       <c r="K24">
-        <v>18.1431125126342</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>15.44760687428289</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>19.67955789657623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>19.36938804261816</v>
+      </c>
+      <c r="N24">
+        <v>11.61785801265795</v>
+      </c>
+      <c r="O24">
+        <v>27.68282226008084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.81654075284715</v>
+        <v>24.75701831029819</v>
       </c>
       <c r="C25">
-        <v>10.52118460212822</v>
+        <v>17.37811612433665</v>
       </c>
       <c r="D25">
-        <v>4.31357882627611</v>
+        <v>4.496963335713259</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.92631056353935</v>
+        <v>36.19130358949501</v>
       </c>
       <c r="G25">
-        <v>29.48628810067567</v>
+        <v>2.066880571046109</v>
       </c>
       <c r="H25">
-        <v>30.51089471939186</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.269354742098036</v>
       </c>
       <c r="K25">
-        <v>16.42321817039864</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>13.89085778913257</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>17.68305835507169</v>
+        <v>17.66336832398591</v>
+      </c>
+      <c r="N25">
+        <v>12.14819940511839</v>
+      </c>
+      <c r="O25">
+        <v>25.95842948652789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.54995291730854</v>
+        <v>22.68136417763712</v>
       </c>
       <c r="C2">
-        <v>15.82978524665788</v>
+        <v>13.52154812631639</v>
       </c>
       <c r="D2">
-        <v>4.386915179503172</v>
+        <v>4.471519684705565</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.32427761963527</v>
+        <v>27.55918659591476</v>
       </c>
       <c r="G2">
-        <v>2.081090605179968</v>
+        <v>36.11537019120325</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.49645340386151</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.30342285826165</v>
       </c>
       <c r="J2">
-        <v>6.265287736017347</v>
+        <v>5.690020265457826</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.134290535571665</v>
       </c>
       <c r="M2">
-        <v>16.47626119724173</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.54517471836533</v>
+        <v>12.17259392253612</v>
       </c>
       <c r="O2">
-        <v>24.73734862784432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.95365693123517</v>
+        <v>21.22988971011307</v>
       </c>
       <c r="C3">
-        <v>14.70897271223813</v>
+        <v>12.66476512424289</v>
       </c>
       <c r="D3">
-        <v>4.313396697587347</v>
+        <v>4.422045061459304</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.08844944448818</v>
+        <v>26.87767901880941</v>
       </c>
       <c r="G3">
-        <v>2.090982743166875</v>
+        <v>34.82888564238003</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.38825158557775</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17.26337867025635</v>
       </c>
       <c r="J3">
-        <v>6.269457170946757</v>
+        <v>5.743982005379941</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.918870995329276</v>
       </c>
       <c r="M3">
-        <v>15.64737581880139</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.81926054831449</v>
+        <v>12.39106791486496</v>
       </c>
       <c r="O3">
-        <v>23.94074017748998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.92290436040732</v>
+        <v>20.29469783985247</v>
       </c>
       <c r="C4">
-        <v>13.98463215183542</v>
+        <v>12.11062370364234</v>
       </c>
       <c r="D4">
-        <v>4.268847765064789</v>
+        <v>4.392370260776029</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.345404065171</v>
+        <v>26.47849058666186</v>
       </c>
       <c r="G4">
-        <v>2.097201721733854</v>
+        <v>34.05835909610643</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.3313753758756</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>17.25628276530558</v>
       </c>
       <c r="J4">
-        <v>6.275232649865778</v>
+        <v>5.778328435297918</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.787502445628331</v>
       </c>
       <c r="M4">
-        <v>15.12761559765548</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.99035386882119</v>
+        <v>12.52810058787367</v>
       </c>
       <c r="O4">
-        <v>23.46729630906907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.49000469146285</v>
+        <v>19.90266906390405</v>
       </c>
       <c r="C5">
-        <v>13.68024298639012</v>
+        <v>11.87773573757674</v>
       </c>
       <c r="D5">
-        <v>4.250853893414035</v>
+        <v>4.380458490482866</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.0467915405432</v>
+        <v>26.32072981682482</v>
       </c>
       <c r="G5">
-        <v>2.099774679858518</v>
+        <v>33.74957377251494</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.31053077081088</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>17.25759204371217</v>
       </c>
       <c r="J5">
-        <v>6.278366473878235</v>
+        <v>5.792633356190388</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.734256813410015</v>
       </c>
       <c r="M5">
-        <v>14.91332084471602</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.06082413055043</v>
+        <v>12.58469449433687</v>
       </c>
       <c r="O5">
-        <v>23.27838502499823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.41734187482111</v>
+        <v>19.8369175831705</v>
       </c>
       <c r="C6">
-        <v>13.62913941934248</v>
+        <v>11.83863773267757</v>
       </c>
       <c r="D6">
-        <v>4.247876042741158</v>
+        <v>4.378491603687232</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.99746677710538</v>
+        <v>26.29483216716785</v>
       </c>
       <c r="G6">
-        <v>2.100204313930345</v>
+        <v>33.69862489720997</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.30720828735402</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>17.25805738307783</v>
       </c>
       <c r="J6">
-        <v>6.278933166693462</v>
+        <v>5.795027402999046</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.725434673937039</v>
       </c>
       <c r="M6">
-        <v>14.87759482752496</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.07257209345551</v>
+        <v>12.59413801677538</v>
       </c>
       <c r="O6">
-        <v>23.24726167052058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.91711835211273</v>
+        <v>20.28945485252216</v>
       </c>
       <c r="C7">
-        <v>13.98056451930056</v>
+        <v>12.1075115303662</v>
       </c>
       <c r="D7">
-        <v>4.268604429388455</v>
+        <v>4.392208876178069</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.34135962026836</v>
+        <v>26.47634300087574</v>
       </c>
       <c r="G7">
-        <v>2.097236262199984</v>
+        <v>34.05417316061271</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.33108490914816</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>17.2562836748896</v>
       </c>
       <c r="J7">
-        <v>6.275271790857651</v>
+        <v>5.77852010317335</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.786783106247869</v>
       </c>
       <c r="M7">
-        <v>15.12473527543314</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.99130116942499</v>
+        <v>12.52886075520135</v>
       </c>
       <c r="O7">
-        <v>23.46473219776541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.00997187348436</v>
+        <v>22.19008609750305</v>
       </c>
       <c r="C8">
-        <v>15.45075735155104</v>
+        <v>13.23194483059889</v>
       </c>
       <c r="D8">
-        <v>4.361449812899681</v>
+        <v>4.454317453672243</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.89501857389397</v>
+        <v>27.3202498969663</v>
       </c>
       <c r="G8">
-        <v>2.084472643292702</v>
+        <v>35.66796641907447</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.45711966650086</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>17.28586691606162</v>
       </c>
       <c r="J8">
-        <v>6.266040568518075</v>
+        <v>5.708376367150056</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.059863292340395</v>
       </c>
       <c r="M8">
-        <v>16.19283225176248</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.63912439837354</v>
+        <v>12.24733992423885</v>
       </c>
       <c r="O8">
-        <v>24.45946934323706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.71926912923374</v>
+        <v>25.69850427576931</v>
       </c>
       <c r="C9">
-        <v>18.05286011287553</v>
+        <v>15.2154079233202</v>
       </c>
       <c r="D9">
-        <v>4.547762642523221</v>
+        <v>4.581517916692127</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.05879180638509</v>
+        <v>29.12460480678927</v>
       </c>
       <c r="G9">
-        <v>2.0604877957639</v>
+        <v>38.97259188417853</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.78311558242662</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.49140214556488</v>
       </c>
       <c r="J9">
-        <v>6.274795158681836</v>
+        <v>5.580302004161607</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.599975734475001</v>
       </c>
       <c r="M9">
-        <v>18.19375932708515</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.96868411935451</v>
+        <v>11.71698496871038</v>
       </c>
       <c r="O9">
-        <v>26.53176415532634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.21475965287311</v>
+        <v>28.07677023952098</v>
       </c>
       <c r="C10">
-        <v>19.80234940431881</v>
+        <v>16.54009217588007</v>
       </c>
       <c r="D10">
-        <v>4.686729724386841</v>
+        <v>4.678073555301692</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>39.4475415248132</v>
+        <v>30.53695850694899</v>
       </c>
       <c r="G10">
-        <v>2.043337538193136</v>
+        <v>41.46988859435082</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.07454285672835</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>17.74410563970103</v>
       </c>
       <c r="J10">
-        <v>6.299582995828231</v>
+        <v>5.491764085242924</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.996539118580705</v>
       </c>
       <c r="M10">
-        <v>19.83980836927815</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.48538635989767</v>
+        <v>11.33878829646123</v>
       </c>
       <c r="O10">
-        <v>28.12656529579397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.30294688403522</v>
+        <v>29.1056293634519</v>
       </c>
       <c r="C11">
-        <v>20.56521636263472</v>
+        <v>17.11468320267456</v>
       </c>
       <c r="D11">
-        <v>4.750330769474498</v>
+        <v>4.722643433669722</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.54799211975605</v>
+        <v>31.19751410410314</v>
       </c>
       <c r="G11">
-        <v>2.035595977109211</v>
+        <v>42.61858848213772</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.2191646165556</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>17.88360369420374</v>
       </c>
       <c r="J11">
-        <v>6.315320048298986</v>
+        <v>5.452643851076184</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.17635324451471</v>
       </c>
       <c r="M11">
-        <v>20.60233406900106</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.26683696099485</v>
+        <v>11.16881196652515</v>
       </c>
       <c r="O11">
-        <v>28.86809781895872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.7085168426729</v>
+        <v>29.48773562162252</v>
       </c>
       <c r="C12">
-        <v>20.84955588110459</v>
+        <v>17.3283096810938</v>
       </c>
       <c r="D12">
-        <v>4.77446699559942</v>
+        <v>4.739612246453006</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.9667667416703</v>
+        <v>31.45020049879639</v>
       </c>
       <c r="G12">
-        <v>2.032669147277346</v>
+        <v>43.05526041263238</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.27572248163191</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>17.94015348171034</v>
       </c>
       <c r="J12">
-        <v>6.3219638294746</v>
+        <v>5.437992265613917</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.244323587025979</v>
       </c>
       <c r="M12">
-        <v>20.88649351947243</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.18420610619064</v>
+        <v>11.10470813282209</v>
       </c>
       <c r="O12">
-        <v>29.15129052134602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.62145486402969</v>
+        <v>29.40577368228077</v>
       </c>
       <c r="C13">
-        <v>20.78851682673752</v>
+        <v>17.28247624868613</v>
       </c>
       <c r="D13">
-        <v>4.769266543234034</v>
+        <v>4.735953671396722</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>40.87648249603567</v>
+        <v>31.39566717832868</v>
       </c>
       <c r="G13">
-        <v>2.033299349611207</v>
+        <v>42.96114190531819</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.26346104523024</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>17.92780572235748</v>
       </c>
       <c r="J13">
-        <v>6.320501804616287</v>
+        <v>5.441140586342976</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.229690875180429</v>
       </c>
       <c r="M13">
-        <v>20.82549569547731</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.20199735103398</v>
+        <v>11.11850293718065</v>
       </c>
       <c r="O13">
-        <v>29.0901916653667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.33644210510925</v>
+        <v>29.13721504127003</v>
       </c>
       <c r="C14">
-        <v>20.58869893566614</v>
+        <v>17.1323372863577</v>
       </c>
       <c r="D14">
-        <v>4.752315440704377</v>
+        <v>4.724037647438884</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.58240298261811</v>
+        <v>31.21825189967049</v>
       </c>
       <c r="G14">
-        <v>2.035355114401174</v>
+        <v>42.65448055249068</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.22378139342831</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>17.88818031625365</v>
       </c>
       <c r="J14">
-        <v>6.315852658302864</v>
+        <v>5.451435224019333</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.181947826796872</v>
       </c>
       <c r="M14">
-        <v>20.6258029137476</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.26003662627016</v>
+        <v>11.16353304969518</v>
       </c>
       <c r="O14">
-        <v>28.89134766976721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.16102489089262</v>
+        <v>28.97174223407015</v>
       </c>
       <c r="C15">
-        <v>20.4657196004753</v>
+        <v>17.03985953091708</v>
       </c>
       <c r="D15">
-        <v>4.741939106075592</v>
+        <v>4.716750576321564</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40.40254246360606</v>
+        <v>31.10991068382683</v>
       </c>
       <c r="G15">
-        <v>2.036614821350936</v>
+        <v>42.46685795203226</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.19971170783004</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>17.86439946043834</v>
       </c>
       <c r="J15">
-        <v>6.313095403041307</v>
+        <v>5.457762019986432</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.15268703695377</v>
       </c>
       <c r="M15">
-        <v>20.50289324626566</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.29560239555596</v>
+        <v>11.19114841964131</v>
       </c>
       <c r="O15">
-        <v>28.76986470089776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.14271928668409</v>
+        <v>28.00847527616913</v>
       </c>
       <c r="C16">
-        <v>19.75184726522358</v>
+        <v>16.50198332987584</v>
       </c>
       <c r="D16">
-        <v>4.682580629287079</v>
+        <v>4.675173639854971</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>39.37590648087972</v>
+        <v>30.49414847528494</v>
       </c>
       <c r="G16">
-        <v>2.043844353629857</v>
+        <v>41.39506009481938</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.0653390934807</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>17.73549977183833</v>
       </c>
       <c r="J16">
-        <v>6.298647904822877</v>
+        <v>5.494343621657086</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.984772734021087</v>
       </c>
       <c r="M16">
-        <v>19.78932203041472</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.49969037127772</v>
+        <v>11.34993531639128</v>
       </c>
       <c r="O16">
-        <v>28.07843315147189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.50615293762617</v>
+        <v>27.40404636373774</v>
       </c>
       <c r="C17">
-        <v>19.30559841451944</v>
+        <v>16.16488522109605</v>
       </c>
       <c r="D17">
-        <v>4.646261306550449</v>
+        <v>4.649831494608978</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>38.74965806663082</v>
+        <v>30.12098400737474</v>
       </c>
       <c r="G17">
-        <v>2.048292203467395</v>
+        <v>40.74067398930599</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.9860349402064</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>17.66285012808203</v>
       </c>
       <c r="J17">
-        <v>6.29095689701133</v>
+        <v>5.517078649265224</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.881584324709941</v>
       </c>
       <c r="M17">
-        <v>19.34317910153127</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.62518491123451</v>
+        <v>11.44785122378382</v>
       </c>
       <c r="O17">
-        <v>27.65841448786665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.13557350479123</v>
+        <v>27.05139567682648</v>
       </c>
       <c r="C18">
-        <v>19.0458099900691</v>
+        <v>15.96835369375468</v>
       </c>
       <c r="D18">
-        <v>4.625407606187896</v>
+        <v>4.635316240350986</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38.39074571623176</v>
+        <v>29.90805224653391</v>
       </c>
       <c r="G18">
-        <v>2.050856413789394</v>
+        <v>40.36548520005871</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.94155197732446</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>17.6233624967082</v>
       </c>
       <c r="J18">
-        <v>6.28695034511349</v>
+        <v>5.530264290522243</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.822179874468976</v>
       </c>
       <c r="M18">
-        <v>19.08342585764623</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.69749254071244</v>
+        <v>11.50436662547408</v>
       </c>
       <c r="O18">
-        <v>27.418333452322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.00933111898463</v>
+        <v>26.93113197544506</v>
       </c>
       <c r="C19">
-        <v>18.95730879353797</v>
+        <v>15.90135582223545</v>
       </c>
       <c r="D19">
-        <v>4.618353267179851</v>
+        <v>4.630412149926451</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>38.26944471029806</v>
+        <v>29.83625149733492</v>
       </c>
       <c r="G19">
-        <v>2.051725740959852</v>
+        <v>40.23866346714676</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.9266831745297</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>17.61038141688964</v>
       </c>
       <c r="J19">
-        <v>6.285664181224444</v>
+        <v>5.534747568004226</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.802058658815834</v>
       </c>
       <c r="M19">
-        <v>18.99493243473166</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.72199814174976</v>
+        <v>11.52353659394325</v>
       </c>
       <c r="O19">
-        <v>27.33730258937572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.57437459502437</v>
+        <v>27.4689053778843</v>
       </c>
       <c r="C20">
-        <v>19.35342366373802</v>
+        <v>16.20104281101116</v>
       </c>
       <c r="D20">
-        <v>4.650123845456746</v>
+        <v>4.652522924555318</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>38.81618959178238</v>
+        <v>30.16053222336992</v>
       </c>
       <c r="G20">
-        <v>2.047818136003613</v>
+        <v>40.81021183689293</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.99435954575807</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>17.67034448983995</v>
       </c>
       <c r="J20">
-        <v>6.291732148054928</v>
+        <v>5.514647207587475</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.892574705840888</v>
       </c>
       <c r="M20">
-        <v>19.39099580816463</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.61181313087366</v>
+        <v>11.43740779041083</v>
       </c>
       <c r="O20">
-        <v>27.70297025814818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.42033153354585</v>
+        <v>29.2162997346664</v>
       </c>
       <c r="C21">
-        <v>20.6475118389812</v>
+        <v>17.17654357370857</v>
       </c>
       <c r="D21">
-        <v>4.757292995094152</v>
+        <v>4.727535207243283</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.66872439129484</v>
+        <v>31.27029419322597</v>
       </c>
       <c r="G21">
-        <v>2.034751191672555</v>
+        <v>42.74450949750337</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.23538713658148</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>17.89971662086318</v>
       </c>
       <c r="J21">
-        <v>6.31719928708378</v>
+        <v>5.448407063114985</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.195974674057377</v>
       </c>
       <c r="M21">
-        <v>20.68458054259262</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.24298605743027</v>
+        <v>11.15029977524534</v>
       </c>
       <c r="O21">
-        <v>28.94968715526951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.58900986198048</v>
+        <v>30.31467073327578</v>
       </c>
       <c r="C22">
-        <v>21.46691094886275</v>
+        <v>17.79105462042277</v>
       </c>
       <c r="D22">
-        <v>4.827637210345435</v>
+        <v>4.777091413624709</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>41.89155651404776</v>
+        <v>32.01043536103342</v>
       </c>
       <c r="G22">
-        <v>2.026236587368045</v>
+        <v>44.01848388173219</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.40339022416366</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.07142494958167</v>
       </c>
       <c r="J22">
-        <v>6.33785603525842</v>
+        <v>5.406060023321002</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.39354439290843</v>
       </c>
       <c r="M22">
-        <v>21.5033478540794</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.00266021079761</v>
+        <v>10.96417082764274</v>
       </c>
       <c r="O22">
-        <v>29.77850278872286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.96862569293075</v>
+        <v>29.73239962207364</v>
       </c>
       <c r="C23">
-        <v>21.03192195488483</v>
+        <v>17.46516072493492</v>
       </c>
       <c r="D23">
-        <v>4.790065820522589</v>
+        <v>4.750594022832584</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>41.23775379607195</v>
+        <v>31.61405994510433</v>
       </c>
       <c r="G23">
-        <v>2.030780092175178</v>
+        <v>43.33767192549705</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.31274522702966</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>17.97772232481941</v>
       </c>
       <c r="J23">
-        <v>6.326448799173537</v>
+        <v>5.428576290692004</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.288174073688973</v>
       </c>
       <c r="M23">
-        <v>21.06872777417156</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.13088018010787</v>
+        <v>11.06338487624864</v>
       </c>
       <c r="O23">
-        <v>29.33482348468919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.54354595878705</v>
+        <v>27.43959868809608</v>
       </c>
       <c r="C24">
-        <v>19.33181195674488</v>
+        <v>16.18470447104211</v>
       </c>
       <c r="D24">
-        <v>4.64837750796211</v>
+        <v>4.651305959849489</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>38.78610718580447</v>
+        <v>30.14264747014405</v>
       </c>
       <c r="G24">
-        <v>2.048032439554511</v>
+        <v>40.77877056744201</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.99059253855586</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>17.66694920325645</v>
       </c>
       <c r="J24">
-        <v>6.291380367288108</v>
+        <v>5.515746103970863</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.887606200981033</v>
       </c>
       <c r="M24">
-        <v>19.36938804261816</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.61785801265795</v>
+        <v>11.44212857179659</v>
       </c>
       <c r="O24">
-        <v>27.68282226008084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.75701831029819</v>
+        <v>24.77489531705847</v>
       </c>
       <c r="C25">
-        <v>17.37811612433665</v>
+        <v>14.70232789121461</v>
       </c>
       <c r="D25">
-        <v>4.496963335713259</v>
+        <v>4.546549793314706</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.19130358949501</v>
+        <v>28.62094571978209</v>
       </c>
       <c r="G25">
-        <v>2.066880571046109</v>
+        <v>38.06541148177543</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.68607418582942</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>17.41878035836885</v>
       </c>
       <c r="J25">
-        <v>6.269354742098036</v>
+        <v>5.61395724344445</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.45370366521777</v>
       </c>
       <c r="M25">
-        <v>17.66336832398591</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.14819940511839</v>
+        <v>11.85831465804714</v>
       </c>
       <c r="O25">
-        <v>25.95842948652789</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.68136417763712</v>
+        <v>19.72533898087631</v>
       </c>
       <c r="C2">
-        <v>13.52154812631639</v>
+        <v>7.955519074909731</v>
       </c>
       <c r="D2">
-        <v>4.471519684705565</v>
+        <v>7.778649110584195</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.55918659591476</v>
+        <v>37.63345625936837</v>
       </c>
       <c r="G2">
-        <v>36.11537019120325</v>
+        <v>43.34716879409017</v>
       </c>
       <c r="H2">
-        <v>11.49645340386151</v>
+        <v>17.78302384349977</v>
       </c>
       <c r="I2">
-        <v>17.30342285826165</v>
+        <v>26.96349738015721</v>
       </c>
       <c r="J2">
-        <v>5.690020265457826</v>
+        <v>9.965697282616896</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.134290535571665</v>
+        <v>12.25303487422587</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.17259392253612</v>
+        <v>18.57794907394481</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.22988971011307</v>
+        <v>19.30689682440947</v>
       </c>
       <c r="C3">
-        <v>12.66476512424289</v>
+        <v>7.505145175652517</v>
       </c>
       <c r="D3">
-        <v>4.422045061459304</v>
+        <v>7.779906183598751</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.87767901880941</v>
+        <v>37.65022079033169</v>
       </c>
       <c r="G3">
-        <v>34.82888564238003</v>
+        <v>43.2698189046213</v>
       </c>
       <c r="H3">
-        <v>11.38825158557775</v>
+        <v>17.82296733596651</v>
       </c>
       <c r="I3">
-        <v>17.26337867025635</v>
+        <v>27.05312787994748</v>
       </c>
       <c r="J3">
-        <v>5.743982005379941</v>
+        <v>9.987062619886832</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.918870995329276</v>
+        <v>12.24283065015564</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.39106791486496</v>
+        <v>18.64248782568058</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.29469783985247</v>
+        <v>19.0491330102792</v>
       </c>
       <c r="C4">
-        <v>12.11062370364234</v>
+        <v>7.212995233458619</v>
       </c>
       <c r="D4">
-        <v>4.392370260776029</v>
+        <v>7.781190844707325</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.47849058666186</v>
+        <v>37.67039197622758</v>
       </c>
       <c r="G4">
-        <v>34.05835909610643</v>
+        <v>43.236648158842</v>
       </c>
       <c r="H4">
-        <v>11.3313753758756</v>
+        <v>17.85114529058134</v>
       </c>
       <c r="I4">
-        <v>17.25628276530558</v>
+        <v>27.11414039461181</v>
       </c>
       <c r="J4">
-        <v>5.778328435297918</v>
+        <v>10.00090491940092</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.787502445628331</v>
+        <v>12.23836574768118</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.52810058787367</v>
+        <v>18.68400535037199</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.90266906390405</v>
+        <v>18.94403188811371</v>
       </c>
       <c r="C5">
-        <v>11.87773573757674</v>
+        <v>7.090055297196023</v>
       </c>
       <c r="D5">
-        <v>4.380458490482866</v>
+        <v>7.781843804219828</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.32072981682482</v>
+        <v>37.68109167760533</v>
       </c>
       <c r="G5">
-        <v>33.74957377251494</v>
+        <v>43.22673628102135</v>
       </c>
       <c r="H5">
-        <v>11.31053077081088</v>
+        <v>17.86354447854191</v>
       </c>
       <c r="I5">
-        <v>17.25759204371217</v>
+        <v>27.14050260347101</v>
       </c>
       <c r="J5">
-        <v>5.792633356190388</v>
+        <v>10.00672829983117</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.734256813410015</v>
+        <v>12.23700097048673</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.58469449433687</v>
+        <v>18.70140091660891</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.8369175831705</v>
+        <v>18.92658076470734</v>
       </c>
       <c r="C6">
-        <v>11.83863773267757</v>
+        <v>7.069407885212675</v>
       </c>
       <c r="D6">
-        <v>4.378491603687232</v>
+        <v>7.78196006046607</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.29483216716785</v>
+        <v>37.68301798161709</v>
       </c>
       <c r="G6">
-        <v>33.69862489720997</v>
+        <v>43.22530821786425</v>
       </c>
       <c r="H6">
-        <v>11.30720828735402</v>
+        <v>17.86565864366773</v>
       </c>
       <c r="I6">
-        <v>17.25805738307783</v>
+        <v>27.14497044142416</v>
       </c>
       <c r="J6">
-        <v>5.795027402999046</v>
+        <v>10.00770630690513</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.725434673937039</v>
+        <v>12.23680186614813</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.59413801677538</v>
+        <v>18.70431828012015</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.28945485252216</v>
+        <v>19.04771562196267</v>
       </c>
       <c r="C7">
-        <v>12.1075115303662</v>
+        <v>7.211352896908154</v>
       </c>
       <c r="D7">
-        <v>4.392208876178069</v>
+        <v>7.781199125948911</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.47634300087574</v>
+        <v>37.67052624207813</v>
       </c>
       <c r="G7">
-        <v>34.05417316061271</v>
+        <v>43.23649988329816</v>
       </c>
       <c r="H7">
-        <v>11.33108490914816</v>
+        <v>17.85130880252315</v>
       </c>
       <c r="I7">
-        <v>17.2562836748896</v>
+        <v>27.11448986062177</v>
       </c>
       <c r="J7">
-        <v>5.77852010317335</v>
+        <v>10.00098271581867</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.786783106247869</v>
+        <v>12.23834549831493</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.52886075520135</v>
+        <v>18.68423802043691</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.19008609750305</v>
+        <v>19.58132322907307</v>
       </c>
       <c r="C8">
-        <v>13.23194483059889</v>
+        <v>7.803493261365737</v>
       </c>
       <c r="D8">
-        <v>4.454317453672243</v>
+        <v>7.778976416195617</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.3202498969663</v>
+        <v>37.63718453098425</v>
       </c>
       <c r="G8">
-        <v>35.66796641907447</v>
+        <v>43.31752957449301</v>
       </c>
       <c r="H8">
-        <v>11.45711966650086</v>
+        <v>17.79603712113672</v>
       </c>
       <c r="I8">
-        <v>17.28586691606162</v>
+        <v>26.99315843908315</v>
       </c>
       <c r="J8">
-        <v>5.708376367150056</v>
+        <v>9.972914108538061</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.059863292340395</v>
+        <v>12.24914398663246</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.24733992423885</v>
+        <v>18.59981055127801</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.69850427576931</v>
+        <v>20.61469025735193</v>
       </c>
       <c r="C9">
-        <v>15.2154079233202</v>
+        <v>8.839430358935234</v>
       </c>
       <c r="D9">
-        <v>4.581517916692127</v>
+        <v>7.778664900336413</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.12460480678927</v>
+        <v>37.65029882593037</v>
       </c>
       <c r="G9">
-        <v>38.97259188417853</v>
+        <v>43.58970617758781</v>
       </c>
       <c r="H9">
-        <v>11.78311558242662</v>
+        <v>17.71671513177136</v>
       </c>
       <c r="I9">
-        <v>17.49140214556488</v>
+        <v>26.80286010331581</v>
       </c>
       <c r="J9">
-        <v>5.580302004161607</v>
+        <v>9.923592569743638</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.599975734475001</v>
+        <v>12.2845130318366</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.71698496871038</v>
+        <v>18.44918120081894</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.07677023952098</v>
+        <v>21.35781807825951</v>
       </c>
       <c r="C10">
-        <v>16.54009217588007</v>
+        <v>9.522944594747386</v>
       </c>
       <c r="D10">
-        <v>4.678073555301692</v>
+        <v>7.780874375396999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.53695850694899</v>
+        <v>37.70786842652545</v>
       </c>
       <c r="G10">
-        <v>41.46988859435082</v>
+        <v>43.85796941228281</v>
       </c>
       <c r="H10">
-        <v>12.07454285672835</v>
+        <v>17.67626488841594</v>
       </c>
       <c r="I10">
-        <v>17.74410563970103</v>
+        <v>26.69234189685452</v>
       </c>
       <c r="J10">
-        <v>5.491764085242924</v>
+        <v>9.890811648227984</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.996539118580705</v>
+        <v>12.31901523334594</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.33878829646123</v>
+        <v>18.34752203676584</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.1056293634519</v>
+        <v>21.69080567732661</v>
       </c>
       <c r="C11">
-        <v>17.11468320267456</v>
+        <v>9.816902804817921</v>
       </c>
       <c r="D11">
-        <v>4.722643433669722</v>
+        <v>7.782402623118006</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.19751410410314</v>
+        <v>37.74445253211586</v>
       </c>
       <c r="G11">
-        <v>42.61858848213772</v>
+        <v>43.99458885103197</v>
       </c>
       <c r="H11">
-        <v>12.2191646165556</v>
+        <v>17.66175403652001</v>
       </c>
       <c r="I11">
-        <v>17.88360369420374</v>
+        <v>26.64847763518751</v>
       </c>
       <c r="J11">
-        <v>5.452643851076184</v>
+        <v>9.876642321440841</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.17635324451471</v>
+        <v>12.33652705346297</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.16881196652515</v>
+        <v>18.30321053158468</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.48773562162252</v>
+        <v>21.81604909106743</v>
       </c>
       <c r="C12">
-        <v>17.3283096810938</v>
+        <v>9.925769215698461</v>
       </c>
       <c r="D12">
-        <v>4.739612246453006</v>
+        <v>7.783055985764771</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.45020049879639</v>
+        <v>37.75979684156582</v>
       </c>
       <c r="G12">
-        <v>43.05526041263238</v>
+        <v>44.04839279970728</v>
       </c>
       <c r="H12">
-        <v>12.27572248163191</v>
+        <v>17.65681986642091</v>
       </c>
       <c r="I12">
-        <v>17.94015348171034</v>
+        <v>26.63279337836119</v>
       </c>
       <c r="J12">
-        <v>5.437992265613917</v>
+        <v>9.871383080603797</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.244323587025979</v>
+        <v>12.34341632006646</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.10470813282209</v>
+        <v>18.28670750133054</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.40577368228077</v>
+        <v>21.7891154422922</v>
       </c>
       <c r="C13">
-        <v>17.28247624868613</v>
+        <v>9.902431906782764</v>
       </c>
       <c r="D13">
-        <v>4.735953671396722</v>
+        <v>7.7829119617966</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.39566717832868</v>
+        <v>37.75642595371589</v>
       </c>
       <c r="G13">
-        <v>42.96114190531819</v>
+        <v>44.03671362246308</v>
       </c>
       <c r="H13">
-        <v>12.26346104523024</v>
+        <v>17.65785756783764</v>
       </c>
       <c r="I13">
-        <v>17.92780572235748</v>
+        <v>26.63613000469502</v>
       </c>
       <c r="J13">
-        <v>5.441140586342976</v>
+        <v>9.872511028237511</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.229690875180429</v>
+        <v>12.34192117707732</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.11850293718065</v>
+        <v>18.29024943498577</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.13721504127003</v>
+        <v>21.7011272770724</v>
       </c>
       <c r="C14">
-        <v>17.1323372863577</v>
+        <v>9.825908429355259</v>
       </c>
       <c r="D14">
-        <v>4.724037647438884</v>
+        <v>7.782454882957827</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.21825189967049</v>
+        <v>37.74568507126284</v>
       </c>
       <c r="G14">
-        <v>42.65448055249068</v>
+        <v>43.99897404135727</v>
       </c>
       <c r="H14">
-        <v>12.22378139342831</v>
+        <v>17.6613368534481</v>
       </c>
       <c r="I14">
-        <v>17.88818031625365</v>
+        <v>26.64716869578069</v>
       </c>
       <c r="J14">
-        <v>5.451435224019333</v>
+        <v>9.876207511162386</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.181947826796872</v>
+        <v>12.33708868815997</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.16353304969518</v>
+        <v>18.30184727773599</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.97174223407015</v>
+        <v>21.64711753586646</v>
       </c>
       <c r="C15">
-        <v>17.03985953091708</v>
+        <v>9.778716452964579</v>
       </c>
       <c r="D15">
-        <v>4.716750576321564</v>
+        <v>7.78218461296718</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.10991068382683</v>
+        <v>37.73929995357052</v>
       </c>
       <c r="G15">
-        <v>42.46685795203226</v>
+        <v>43.97612601579524</v>
       </c>
       <c r="H15">
-        <v>12.19971170783004</v>
+        <v>17.66354108317693</v>
       </c>
       <c r="I15">
-        <v>17.86439946043834</v>
+        <v>26.6540509542386</v>
       </c>
       <c r="J15">
-        <v>5.457762019986432</v>
+        <v>9.878485553684278</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.15268703695377</v>
+        <v>12.33416213624414</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.19114841964131</v>
+        <v>18.30898729739258</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.00847527616913</v>
+        <v>21.33594389994913</v>
       </c>
       <c r="C16">
-        <v>16.50198332987584</v>
+        <v>9.503391365899356</v>
       </c>
       <c r="D16">
-        <v>4.675173639854971</v>
+        <v>7.780784978643163</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.49414847528494</v>
+        <v>37.70568643393633</v>
       </c>
       <c r="G16">
-        <v>41.39506009481938</v>
+        <v>43.84933218217569</v>
       </c>
       <c r="H16">
-        <v>12.0653390934807</v>
+        <v>17.67729160864175</v>
       </c>
       <c r="I16">
-        <v>17.73549977183833</v>
+        <v>26.69533790606831</v>
       </c>
       <c r="J16">
-        <v>5.494343621657086</v>
+        <v>9.891752557161501</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.984772734021087</v>
+        <v>12.31790707182996</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.34993531639128</v>
+        <v>18.35045669872063</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.40404636373774</v>
+        <v>21.14366131589797</v>
       </c>
       <c r="C17">
-        <v>16.16488522109605</v>
+        <v>9.330133531084389</v>
       </c>
       <c r="D17">
-        <v>4.649831494608978</v>
+        <v>7.780059930770736</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.12098400737474</v>
+        <v>37.68772570522756</v>
       </c>
       <c r="G17">
-        <v>40.74067398930599</v>
+        <v>43.77526509191051</v>
       </c>
       <c r="H17">
-        <v>11.9860349402064</v>
+        <v>17.68672451425595</v>
       </c>
       <c r="I17">
-        <v>17.66285012808203</v>
+        <v>26.72231123371126</v>
       </c>
       <c r="J17">
-        <v>5.517078649265224</v>
+        <v>9.900081381999538</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.881584324709941</v>
+        <v>12.30839810887612</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.44785122378382</v>
+        <v>18.37639118667408</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.05139567682648</v>
+        <v>21.03259559546266</v>
       </c>
       <c r="C18">
-        <v>15.96835369375468</v>
+        <v>9.228882592802611</v>
       </c>
       <c r="D18">
-        <v>4.635316240350986</v>
+        <v>7.779692178993301</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.90805224653391</v>
+        <v>37.67837398414892</v>
       </c>
       <c r="G18">
-        <v>40.36548520005871</v>
+        <v>43.73403842990216</v>
       </c>
       <c r="H18">
-        <v>11.94155197732446</v>
+        <v>17.6925161628198</v>
       </c>
       <c r="I18">
-        <v>17.6233624967082</v>
+        <v>26.73842876749206</v>
       </c>
       <c r="J18">
-        <v>5.530264290522243</v>
+        <v>9.904941851601288</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.822179874468976</v>
+        <v>12.30310000315606</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.50436662547408</v>
+        <v>18.39149010902892</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.93113197544506</v>
+        <v>20.99491384441475</v>
       </c>
       <c r="C19">
-        <v>15.90135582223545</v>
+        <v>9.194326677551826</v>
       </c>
       <c r="D19">
-        <v>4.630412149926451</v>
+        <v>7.779576145278587</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.83625149733492</v>
+        <v>37.67537586441023</v>
       </c>
       <c r="G19">
-        <v>40.23866346714676</v>
+        <v>43.72031670205201</v>
       </c>
       <c r="H19">
-        <v>11.9266831745297</v>
+        <v>17.69453994697633</v>
       </c>
       <c r="I19">
-        <v>17.61038141688964</v>
+        <v>26.74398935255559</v>
       </c>
       <c r="J19">
-        <v>5.534747568004226</v>
+        <v>9.906599550816402</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.802058658815834</v>
+        <v>12.30133565614538</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.52353659394325</v>
+        <v>18.39663365881898</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.4689053778843</v>
+        <v>21.16417967408447</v>
       </c>
       <c r="C20">
-        <v>16.20104281101116</v>
+        <v>9.348742539998479</v>
       </c>
       <c r="D20">
-        <v>4.652522924555318</v>
+        <v>7.780132017577223</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.16053222336992</v>
+        <v>37.68953637660539</v>
       </c>
       <c r="G20">
-        <v>40.81021183689293</v>
+        <v>43.78300756814046</v>
       </c>
       <c r="H20">
-        <v>11.99435954575807</v>
+        <v>17.6856824657286</v>
       </c>
       <c r="I20">
-        <v>17.67034448983995</v>
+        <v>26.71937741748834</v>
       </c>
       <c r="J20">
-        <v>5.514647207587475</v>
+        <v>9.899187528098201</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.892574705840888</v>
+        <v>12.30939265907769</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.43740779041083</v>
+        <v>18.3736115798688</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.2162997346664</v>
+        <v>21.72699559406608</v>
       </c>
       <c r="C21">
-        <v>17.17654357370857</v>
+        <v>9.848451747173662</v>
       </c>
       <c r="D21">
-        <v>4.727535207243283</v>
+        <v>7.782587116842926</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.27029419322597</v>
+        <v>37.74879951258222</v>
       </c>
       <c r="G21">
-        <v>42.74450949750337</v>
+        <v>44.01000315982399</v>
       </c>
       <c r="H21">
-        <v>12.23538713658148</v>
+        <v>17.66029967368507</v>
       </c>
       <c r="I21">
-        <v>17.89971662086318</v>
+        <v>26.64390119479267</v>
       </c>
       <c r="J21">
-        <v>5.448407063114985</v>
+        <v>9.87511888107613</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.195974674057377</v>
+        <v>12.33850113481841</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.15029977524534</v>
+        <v>18.29843320883557</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.31467073327578</v>
+        <v>22.08981210771093</v>
       </c>
       <c r="C22">
-        <v>17.79105462042277</v>
+        <v>10.16076342677964</v>
       </c>
       <c r="D22">
-        <v>4.777091413624709</v>
+        <v>7.784626495630867</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.01043536103342</v>
+        <v>37.79621729301865</v>
       </c>
       <c r="G22">
-        <v>44.01848388173219</v>
+        <v>44.17040254921115</v>
       </c>
       <c r="H22">
-        <v>12.40339022416366</v>
+        <v>17.64697967324157</v>
       </c>
       <c r="I22">
-        <v>18.07142494958167</v>
+        <v>26.59997352060708</v>
       </c>
       <c r="J22">
-        <v>5.406060023321002</v>
+        <v>9.860008462565483</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.39354439290843</v>
+        <v>12.35902687900328</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.96417082764274</v>
+        <v>18.25091246515231</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.73239962207364</v>
+        <v>21.8966677639654</v>
       </c>
       <c r="C23">
-        <v>17.46516072493492</v>
+        <v>9.995384979501704</v>
       </c>
       <c r="D23">
-        <v>4.750594022832584</v>
+        <v>7.783498448825513</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.61405994510433</v>
+        <v>37.77011655710798</v>
       </c>
       <c r="G23">
-        <v>43.33767192549705</v>
+        <v>44.08370262021442</v>
       </c>
       <c r="H23">
-        <v>12.31274522702966</v>
+        <v>17.6537892803994</v>
       </c>
       <c r="I23">
-        <v>17.97772232481941</v>
+        <v>26.62292303539375</v>
       </c>
       <c r="J23">
-        <v>5.428576290692004</v>
+        <v>9.86801660978378</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.288174073688973</v>
+        <v>12.34793564724776</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.06338487624864</v>
+        <v>18.27612804515405</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.43959868809608</v>
+        <v>21.15490493420191</v>
       </c>
       <c r="C24">
-        <v>16.18470447104211</v>
+        <v>9.340334523187249</v>
       </c>
       <c r="D24">
-        <v>4.651305959849489</v>
+        <v>7.780099274204448</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.14264747014405</v>
+        <v>37.68871473729927</v>
       </c>
       <c r="G24">
-        <v>40.77877056744201</v>
+        <v>43.77950297016624</v>
       </c>
       <c r="H24">
-        <v>11.99059253855586</v>
+        <v>17.68615242791475</v>
       </c>
       <c r="I24">
-        <v>17.66694920325645</v>
+        <v>26.7207018952815</v>
       </c>
       <c r="J24">
-        <v>5.515746103970863</v>
+        <v>9.899591414770237</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.887606200981033</v>
+        <v>12.30894249712751</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.44212857179659</v>
+        <v>18.37486765174109</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.77489531705847</v>
+        <v>20.33739856330205</v>
       </c>
       <c r="C25">
-        <v>14.70232789121461</v>
+        <v>8.572742549254924</v>
       </c>
       <c r="D25">
-        <v>4.546549793314706</v>
+        <v>7.778318828301871</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.62094571978209</v>
+        <v>37.63833300738526</v>
       </c>
       <c r="G25">
-        <v>38.06541148177543</v>
+        <v>43.50400996744541</v>
       </c>
       <c r="H25">
-        <v>11.68607418582942</v>
+        <v>17.73505029504486</v>
       </c>
       <c r="I25">
-        <v>17.41878035836885</v>
+        <v>26.8492145432915</v>
       </c>
       <c r="J25">
-        <v>5.61395724344445</v>
+        <v>9.936326215007249</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.45370366521777</v>
+        <v>12.2734384359815</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.85831465804714</v>
+        <v>18.4883416863521</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.72533898087631</v>
+        <v>22.68136417763715</v>
       </c>
       <c r="C2">
-        <v>7.955519074909731</v>
+        <v>13.52154812631641</v>
       </c>
       <c r="D2">
-        <v>7.778649110584195</v>
+        <v>4.471519684705507</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.63345625936837</v>
+        <v>27.55918659591467</v>
       </c>
       <c r="G2">
-        <v>43.34716879409017</v>
+        <v>36.11537019120319</v>
       </c>
       <c r="H2">
-        <v>17.78302384349977</v>
+        <v>11.4964534038615</v>
       </c>
       <c r="I2">
-        <v>26.96349738015721</v>
+        <v>17.30342285826154</v>
       </c>
       <c r="J2">
-        <v>9.965697282616896</v>
+        <v>5.690020265457826</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.25303487422587</v>
+        <v>8.134290535571647</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.57794907394481</v>
+        <v>12.17259392253605</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.30689682440947</v>
+        <v>21.22988971011309</v>
       </c>
       <c r="C3">
-        <v>7.505145175652517</v>
+        <v>12.6647651242428</v>
       </c>
       <c r="D3">
-        <v>7.779906183598751</v>
+        <v>4.422045061459254</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.65022079033169</v>
+        <v>26.87767901880937</v>
       </c>
       <c r="G3">
-        <v>43.2698189046213</v>
+        <v>34.82888564238004</v>
       </c>
       <c r="H3">
-        <v>17.82296733596651</v>
+        <v>11.38825158557771</v>
       </c>
       <c r="I3">
-        <v>27.05312787994748</v>
+        <v>17.26337867025628</v>
       </c>
       <c r="J3">
-        <v>9.987062619886832</v>
+        <v>5.743982005379841</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.24283065015564</v>
+        <v>7.918870995329231</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.64248782568058</v>
+        <v>12.39106791486493</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.0491330102792</v>
+        <v>20.2946978398525</v>
       </c>
       <c r="C4">
-        <v>7.212995233458619</v>
+        <v>12.1106237036422</v>
       </c>
       <c r="D4">
-        <v>7.781190844707325</v>
+        <v>4.39237026077591</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.67039197622758</v>
+        <v>26.47849058666208</v>
       </c>
       <c r="G4">
-        <v>43.236648158842</v>
+        <v>34.05835909610667</v>
       </c>
       <c r="H4">
-        <v>17.85114529058134</v>
+        <v>11.33137537587571</v>
       </c>
       <c r="I4">
-        <v>27.11414039461181</v>
+        <v>17.2562827653057</v>
       </c>
       <c r="J4">
-        <v>10.00090491940092</v>
+        <v>5.778328435297986</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.23836574768118</v>
+        <v>7.787502445628375</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.68400535037199</v>
+        <v>12.5281005878737</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.94403188811371</v>
+        <v>19.90266906390403</v>
       </c>
       <c r="C5">
-        <v>7.090055297196023</v>
+        <v>11.87773573757674</v>
       </c>
       <c r="D5">
-        <v>7.781843804219828</v>
+        <v>4.380458490482928</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>37.68109167760533</v>
+        <v>26.32072981682476</v>
       </c>
       <c r="G5">
-        <v>43.22673628102135</v>
+        <v>33.74957377251482</v>
       </c>
       <c r="H5">
-        <v>17.86354447854191</v>
+        <v>11.31053077081084</v>
       </c>
       <c r="I5">
-        <v>27.14050260347101</v>
+        <v>17.25759204371206</v>
       </c>
       <c r="J5">
-        <v>10.00672829983117</v>
+        <v>5.792633356190358</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.23700097048673</v>
+        <v>7.734256813410045</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.70140091660891</v>
+        <v>12.58469449433679</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.92658076470734</v>
+        <v>19.83691758317045</v>
       </c>
       <c r="C6">
-        <v>7.069407885212675</v>
+        <v>11.8386377326775</v>
       </c>
       <c r="D6">
-        <v>7.78196006046607</v>
+        <v>4.378491603686757</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37.68301798161709</v>
+        <v>26.29483216716755</v>
       </c>
       <c r="G6">
-        <v>43.22530821786425</v>
+        <v>33.69862489720987</v>
       </c>
       <c r="H6">
-        <v>17.86565864366773</v>
+        <v>11.30720828735393</v>
       </c>
       <c r="I6">
-        <v>27.14497044142416</v>
+        <v>17.25805738307769</v>
       </c>
       <c r="J6">
-        <v>10.00770630690513</v>
+        <v>5.795027402999207</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.23680186614813</v>
+        <v>7.725434673937002</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.70431828012015</v>
+        <v>12.59413801677532</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.04771562196267</v>
+        <v>20.28945485252219</v>
       </c>
       <c r="C7">
-        <v>7.211352896908154</v>
+        <v>12.10751153036611</v>
       </c>
       <c r="D7">
-        <v>7.781199125948911</v>
+        <v>4.392208876177945</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.67052624207813</v>
+        <v>26.47634300087582</v>
       </c>
       <c r="G7">
-        <v>43.23649988329816</v>
+        <v>34.05417316061285</v>
       </c>
       <c r="H7">
-        <v>17.85130880252315</v>
+        <v>11.33108490914818</v>
       </c>
       <c r="I7">
-        <v>27.11448986062177</v>
+        <v>17.25628367488964</v>
       </c>
       <c r="J7">
-        <v>10.00098271581867</v>
+        <v>5.778520103173419</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.23834549831493</v>
+        <v>7.786783106247955</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.68423802043691</v>
+        <v>12.52886075520138</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.58132322907307</v>
+        <v>22.19008609750303</v>
       </c>
       <c r="C8">
-        <v>7.803493261365737</v>
+        <v>13.23194483059869</v>
       </c>
       <c r="D8">
-        <v>7.778976416195617</v>
+        <v>4.454317453672193</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.63718453098425</v>
+        <v>27.32024989696633</v>
       </c>
       <c r="G8">
-        <v>43.31752957449301</v>
+        <v>35.66796641907447</v>
       </c>
       <c r="H8">
-        <v>17.79603712113672</v>
+        <v>11.45711966650094</v>
       </c>
       <c r="I8">
-        <v>26.99315843908315</v>
+        <v>17.28586691606161</v>
       </c>
       <c r="J8">
-        <v>9.972914108538061</v>
+        <v>5.708376367149924</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.24914398663246</v>
+        <v>8.059863292340355</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.59981055127801</v>
+        <v>12.24733992423885</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.61469025735193</v>
+        <v>25.69850427576939</v>
       </c>
       <c r="C9">
-        <v>8.839430358935234</v>
+        <v>15.21540792332024</v>
       </c>
       <c r="D9">
-        <v>7.778664900336413</v>
+        <v>4.581517916692137</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.65029882593037</v>
+        <v>29.12460480678922</v>
       </c>
       <c r="G9">
-        <v>43.58970617758781</v>
+        <v>38.97259188417848</v>
       </c>
       <c r="H9">
-        <v>17.71671513177136</v>
+        <v>11.78311558242658</v>
       </c>
       <c r="I9">
-        <v>26.80286010331581</v>
+        <v>17.49140214556481</v>
       </c>
       <c r="J9">
-        <v>9.923592569743638</v>
+        <v>5.580302004161611</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.2845130318366</v>
+        <v>8.599975734474961</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.44918120081894</v>
+        <v>11.71698496871038</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.35781807825951</v>
+        <v>28.07677023952095</v>
       </c>
       <c r="C10">
-        <v>9.522944594747386</v>
+        <v>16.54009217588013</v>
       </c>
       <c r="D10">
-        <v>7.780874375396999</v>
+        <v>4.678073555301682</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.70786842652545</v>
+        <v>30.53695850694904</v>
       </c>
       <c r="G10">
-        <v>43.85796941228281</v>
+        <v>41.46988859435095</v>
       </c>
       <c r="H10">
-        <v>17.67626488841594</v>
+        <v>12.07454285672836</v>
       </c>
       <c r="I10">
-        <v>26.69234189685452</v>
+        <v>17.74410563970111</v>
       </c>
       <c r="J10">
-        <v>9.890811648227984</v>
+        <v>5.491764085243021</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.31901523334594</v>
+        <v>8.996539118580698</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.34752203676584</v>
+        <v>11.33878829646123</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.69080567732661</v>
+        <v>29.10562936345191</v>
       </c>
       <c r="C11">
-        <v>9.816902804817921</v>
+        <v>17.11468320267453</v>
       </c>
       <c r="D11">
-        <v>7.782402623118006</v>
+        <v>4.722643433669733</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>37.74445253211586</v>
+        <v>31.19751410410318</v>
       </c>
       <c r="G11">
-        <v>43.99458885103197</v>
+        <v>42.61858848213773</v>
       </c>
       <c r="H11">
-        <v>17.66175403652001</v>
+        <v>12.21916461655563</v>
       </c>
       <c r="I11">
-        <v>26.64847763518751</v>
+        <v>17.88360369420376</v>
       </c>
       <c r="J11">
-        <v>9.876642321440841</v>
+        <v>5.452643851076052</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.33652705346297</v>
+        <v>9.17635324451466</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.30321053158468</v>
+        <v>11.16881196652511</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.81604909106743</v>
+        <v>29.48773562162255</v>
       </c>
       <c r="C12">
-        <v>9.925769215698461</v>
+        <v>17.32830968109394</v>
       </c>
       <c r="D12">
-        <v>7.783055985764771</v>
+        <v>4.739612246452895</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>37.75979684156582</v>
+        <v>31.45020049879634</v>
       </c>
       <c r="G12">
-        <v>44.04839279970728</v>
+        <v>43.05526041263241</v>
       </c>
       <c r="H12">
-        <v>17.65681986642091</v>
+        <v>12.2757224816319</v>
       </c>
       <c r="I12">
-        <v>26.63279337836119</v>
+        <v>17.94015348171031</v>
       </c>
       <c r="J12">
-        <v>9.871383080603797</v>
+        <v>5.437992265614012</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.34341632006646</v>
+        <v>9.24432358702594</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.28670750133054</v>
+        <v>11.10470813282202</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.7891154422922</v>
+        <v>29.40577368228075</v>
       </c>
       <c r="C13">
-        <v>9.902431906782764</v>
+        <v>17.28247624868618</v>
       </c>
       <c r="D13">
-        <v>7.7829119617966</v>
+        <v>4.735953671396758</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>37.75642595371589</v>
+        <v>31.39566717832879</v>
       </c>
       <c r="G13">
-        <v>44.03671362246308</v>
+        <v>42.96114190531836</v>
       </c>
       <c r="H13">
-        <v>17.65785756783764</v>
+        <v>12.26346104523028</v>
       </c>
       <c r="I13">
-        <v>26.63613000469502</v>
+        <v>17.92780572235757</v>
       </c>
       <c r="J13">
-        <v>9.872511028237511</v>
+        <v>5.44114058634301</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.34192117707732</v>
+        <v>9.229690875180463</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.29024943498577</v>
+        <v>11.11850293718067</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.7011272770724</v>
+        <v>29.13721504126999</v>
       </c>
       <c r="C14">
-        <v>9.825908429355259</v>
+        <v>17.1323372863577</v>
       </c>
       <c r="D14">
-        <v>7.782454882957827</v>
+        <v>4.724037647438925</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>37.74568507126284</v>
+        <v>31.21825189967052</v>
       </c>
       <c r="G14">
-        <v>43.99897404135727</v>
+        <v>42.65448055249067</v>
       </c>
       <c r="H14">
-        <v>17.6613368534481</v>
+        <v>12.22378139342835</v>
       </c>
       <c r="I14">
-        <v>26.64716869578069</v>
+        <v>17.88818031625365</v>
       </c>
       <c r="J14">
-        <v>9.876207511162386</v>
+        <v>5.45143522401927</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.33708868815997</v>
+        <v>9.181947826796872</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.30184727773599</v>
+        <v>11.16353304969515</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.64711753586646</v>
+        <v>28.97174223407015</v>
       </c>
       <c r="C15">
-        <v>9.778716452964579</v>
+        <v>17.03985953091708</v>
       </c>
       <c r="D15">
-        <v>7.78218461296718</v>
+        <v>4.716750576321714</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>37.73929995357052</v>
+        <v>31.10991068382691</v>
       </c>
       <c r="G15">
-        <v>43.97612601579524</v>
+        <v>42.46685795203237</v>
       </c>
       <c r="H15">
-        <v>17.66354108317693</v>
+        <v>12.19971170783008</v>
       </c>
       <c r="I15">
-        <v>26.6540509542386</v>
+        <v>17.86439946043842</v>
       </c>
       <c r="J15">
-        <v>9.878485553684278</v>
+        <v>5.457762019986401</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.33416213624414</v>
+        <v>9.152687036953788</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.30898729739258</v>
+        <v>11.19114841964131</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.33594389994913</v>
+        <v>28.00847527616913</v>
       </c>
       <c r="C16">
-        <v>9.503391365899356</v>
+        <v>16.50198332987585</v>
       </c>
       <c r="D16">
-        <v>7.780784978643163</v>
+        <v>4.675173639854961</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>37.70568643393633</v>
+        <v>30.49414847528493</v>
       </c>
       <c r="G16">
-        <v>43.84933218217569</v>
+        <v>41.39506009481936</v>
       </c>
       <c r="H16">
-        <v>17.67729160864175</v>
+        <v>12.0653390934807</v>
       </c>
       <c r="I16">
-        <v>26.69533790606831</v>
+        <v>17.73549977183833</v>
       </c>
       <c r="J16">
-        <v>9.891752557161501</v>
+        <v>5.494343621657086</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.31790707182996</v>
+        <v>8.984772734021091</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.35045669872063</v>
+        <v>11.34993531639128</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.14366131589797</v>
+        <v>27.40404636373779</v>
       </c>
       <c r="C17">
-        <v>9.330133531084389</v>
+        <v>16.16488522109619</v>
       </c>
       <c r="D17">
-        <v>7.780059930770736</v>
+        <v>4.649831494608979</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.68772570522756</v>
+        <v>30.12098400737469</v>
       </c>
       <c r="G17">
-        <v>43.77526509191051</v>
+        <v>40.74067398930603</v>
       </c>
       <c r="H17">
-        <v>17.68672451425595</v>
+        <v>11.98603494020636</v>
       </c>
       <c r="I17">
-        <v>26.72231123371126</v>
+        <v>17.66285012808199</v>
       </c>
       <c r="J17">
-        <v>9.900081381999538</v>
+        <v>5.517078649265287</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.30839810887612</v>
+        <v>8.881584324709953</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.37639118667408</v>
+        <v>11.44785122378372</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.03259559546266</v>
+        <v>27.05139567682643</v>
       </c>
       <c r="C18">
-        <v>9.228882592802611</v>
+        <v>15.96835369375446</v>
       </c>
       <c r="D18">
-        <v>7.779692178993301</v>
+        <v>4.635316240350996</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.67837398414892</v>
+        <v>29.90805224653407</v>
       </c>
       <c r="G18">
-        <v>43.73403842990216</v>
+        <v>40.36548520005886</v>
       </c>
       <c r="H18">
-        <v>17.6925161628198</v>
+        <v>11.94155197732459</v>
       </c>
       <c r="I18">
-        <v>26.73842876749206</v>
+        <v>17.62336249670839</v>
       </c>
       <c r="J18">
-        <v>9.904941851601288</v>
+        <v>5.530264290522278</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.30310000315606</v>
+        <v>8.822179874469013</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.39149010902892</v>
+        <v>11.50436662547414</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.99491384441475</v>
+        <v>26.93113197544504</v>
       </c>
       <c r="C19">
-        <v>9.194326677551826</v>
+        <v>15.9013558222355</v>
       </c>
       <c r="D19">
-        <v>7.779576145278587</v>
+        <v>4.630412149926336</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>37.67537586441023</v>
+        <v>29.83625149733495</v>
       </c>
       <c r="G19">
-        <v>43.72031670205201</v>
+        <v>40.23866346714685</v>
       </c>
       <c r="H19">
-        <v>17.69453994697633</v>
+        <v>11.92668317452967</v>
       </c>
       <c r="I19">
-        <v>26.74398935255559</v>
+        <v>17.6103814168897</v>
       </c>
       <c r="J19">
-        <v>9.906599550816402</v>
+        <v>5.534747568004224</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.30133565614538</v>
+        <v>8.80205865881581</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.39663365881898</v>
+        <v>11.52353659394332</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.16417967408447</v>
+        <v>27.46890537788425</v>
       </c>
       <c r="C20">
-        <v>9.348742539998479</v>
+        <v>16.20104281101122</v>
       </c>
       <c r="D20">
-        <v>7.780132017577223</v>
+        <v>4.652522924555166</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.68953637660539</v>
+        <v>30.16053222336993</v>
       </c>
       <c r="G20">
-        <v>43.78300756814046</v>
+        <v>40.810211836893</v>
       </c>
       <c r="H20">
-        <v>17.6856824657286</v>
+        <v>11.99435954575811</v>
       </c>
       <c r="I20">
-        <v>26.71937741748834</v>
+        <v>17.67034448984007</v>
       </c>
       <c r="J20">
-        <v>9.899187528098201</v>
+        <v>5.51464720758754</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.30939265907769</v>
+        <v>8.892574705840829</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.3736115798688</v>
+        <v>11.43740779041093</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.72699559406608</v>
+        <v>29.2162997346664</v>
       </c>
       <c r="C21">
-        <v>9.848451747173662</v>
+        <v>17.17654357370853</v>
       </c>
       <c r="D21">
-        <v>7.782587116842926</v>
+        <v>4.727535207243421</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>37.74879951258222</v>
+        <v>31.27029419322602</v>
       </c>
       <c r="G21">
-        <v>44.01000315982399</v>
+        <v>42.74450949750339</v>
       </c>
       <c r="H21">
-        <v>17.66029967368507</v>
+        <v>12.23538713658149</v>
       </c>
       <c r="I21">
-        <v>26.64390119479267</v>
+        <v>17.8997166208632</v>
       </c>
       <c r="J21">
-        <v>9.87511888107613</v>
+        <v>5.448407063114826</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.33850113481841</v>
+        <v>9.195974674057377</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.29843320883557</v>
+        <v>11.15029977524534</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.08981210771093</v>
+        <v>30.31467073327579</v>
       </c>
       <c r="C22">
-        <v>10.16076342677964</v>
+        <v>17.79105462042284</v>
       </c>
       <c r="D22">
-        <v>7.784626495630867</v>
+        <v>4.777091413624803</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.79621729301865</v>
+        <v>32.01043536103337</v>
       </c>
       <c r="G22">
-        <v>44.17040254921115</v>
+        <v>44.01848388173214</v>
       </c>
       <c r="H22">
-        <v>17.64697967324157</v>
+        <v>12.40339022416362</v>
       </c>
       <c r="I22">
-        <v>26.59997352060708</v>
+        <v>18.07142494958163</v>
       </c>
       <c r="J22">
-        <v>9.860008462565483</v>
+        <v>5.406060023321034</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.35902687900328</v>
+        <v>9.393544392908456</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.25091246515231</v>
+        <v>10.96417082764268</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.8966677639654</v>
+        <v>29.73239962207357</v>
       </c>
       <c r="C23">
-        <v>9.995384979501704</v>
+        <v>17.46516072493494</v>
       </c>
       <c r="D23">
-        <v>7.783498448825513</v>
+        <v>4.750594022832579</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>37.77011655710798</v>
+        <v>31.61405994510438</v>
       </c>
       <c r="G23">
-        <v>44.08370262021442</v>
+        <v>43.33767192549709</v>
       </c>
       <c r="H23">
-        <v>17.6537892803994</v>
+        <v>12.31274522702972</v>
       </c>
       <c r="I23">
-        <v>26.62292303539375</v>
+        <v>17.97772232481951</v>
       </c>
       <c r="J23">
-        <v>9.86801660978378</v>
+        <v>5.428576290692072</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.34793564724776</v>
+        <v>9.288174073688985</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.27612804515405</v>
+        <v>11.0633848762487</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.15490493420191</v>
+        <v>27.43959868809612</v>
       </c>
       <c r="C24">
-        <v>9.340334523187249</v>
+        <v>16.18470447104203</v>
       </c>
       <c r="D24">
-        <v>7.780099274204448</v>
+        <v>4.651305959849539</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.68871473729927</v>
+        <v>30.14264747014405</v>
       </c>
       <c r="G24">
-        <v>43.77950297016624</v>
+        <v>40.77877056744203</v>
       </c>
       <c r="H24">
-        <v>17.68615242791475</v>
+        <v>11.99059253855588</v>
       </c>
       <c r="I24">
-        <v>26.7207018952815</v>
+        <v>17.66694920325643</v>
       </c>
       <c r="J24">
-        <v>9.899591414770237</v>
+        <v>5.515746103970798</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.30894249712751</v>
+        <v>8.88760620098101</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.37486765174109</v>
+        <v>11.44212857179659</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.33739856330205</v>
+        <v>24.77489531705849</v>
       </c>
       <c r="C25">
-        <v>8.572742549254924</v>
+        <v>14.70232789121474</v>
       </c>
       <c r="D25">
-        <v>7.778318828301871</v>
+        <v>4.546549793314803</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>37.63833300738526</v>
+        <v>28.62094571978205</v>
       </c>
       <c r="G25">
-        <v>43.50400996744541</v>
+        <v>38.06541148177537</v>
       </c>
       <c r="H25">
-        <v>17.73505029504486</v>
+        <v>11.68607418582934</v>
       </c>
       <c r="I25">
-        <v>26.8492145432915</v>
+        <v>17.41878035836883</v>
       </c>
       <c r="J25">
-        <v>9.936326215007249</v>
+        <v>5.613957243444452</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.2734384359815</v>
+        <v>8.453703665217702</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.4883416863521</v>
+        <v>11.85831465804711</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.68136417763715</v>
+        <v>17.29360510353733</v>
       </c>
       <c r="C2">
-        <v>13.52154812631641</v>
+        <v>13.03006736226971</v>
       </c>
       <c r="D2">
-        <v>4.471519684705507</v>
+        <v>8.679484645308472</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.55918659591467</v>
+        <v>20.93420217330804</v>
       </c>
       <c r="G2">
-        <v>36.11537019120319</v>
+        <v>21.22553085037021</v>
       </c>
       <c r="H2">
-        <v>11.4964534038615</v>
+        <v>1.573650498973809</v>
       </c>
       <c r="I2">
-        <v>17.30342285826154</v>
+        <v>3.037673162325108</v>
       </c>
       <c r="J2">
-        <v>5.690020265457826</v>
+        <v>8.380720029241202</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.15812614080737</v>
       </c>
       <c r="L2">
-        <v>8.134290535571647</v>
+        <v>7.753853119866588</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.17259392253605</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.17818114063279</v>
+      </c>
+      <c r="P2">
+        <v>12.28388785569926</v>
+      </c>
+      <c r="Q2">
+        <v>13.63771361189817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.22988971011309</v>
+        <v>16.18766589994454</v>
       </c>
       <c r="C3">
-        <v>12.6647651242428</v>
+        <v>12.31514661112369</v>
       </c>
       <c r="D3">
-        <v>4.422045061459254</v>
+        <v>8.385887515626347</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.87767901880937</v>
+        <v>20.44525246360842</v>
       </c>
       <c r="G3">
-        <v>34.82888564238004</v>
+        <v>20.57437471581778</v>
       </c>
       <c r="H3">
-        <v>11.38825158557771</v>
+        <v>1.772729326831429</v>
       </c>
       <c r="I3">
-        <v>17.26337867025628</v>
+        <v>2.911366751808483</v>
       </c>
       <c r="J3">
-        <v>5.743982005379841</v>
+        <v>8.360511689000818</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.25755237673489</v>
       </c>
       <c r="L3">
-        <v>7.918870995329231</v>
+        <v>7.626363610005556</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.39106791486493</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.38290463587759</v>
+      </c>
+      <c r="P3">
+        <v>12.33083497615244</v>
+      </c>
+      <c r="Q3">
+        <v>13.47533001673416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.2946978398525</v>
+        <v>15.46544185920455</v>
       </c>
       <c r="C4">
-        <v>12.1106237036422</v>
+        <v>11.85694453479613</v>
       </c>
       <c r="D4">
-        <v>4.39237026077591</v>
+        <v>8.201433373909502</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.47849058666208</v>
+        <v>20.14617767187613</v>
       </c>
       <c r="G4">
-        <v>34.05835909610667</v>
+        <v>20.17452045612433</v>
       </c>
       <c r="H4">
-        <v>11.33137537587571</v>
+        <v>1.899651053748816</v>
       </c>
       <c r="I4">
-        <v>17.2562827653057</v>
+        <v>2.831496220873314</v>
       </c>
       <c r="J4">
-        <v>5.778328435297986</v>
+        <v>8.350930116068836</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.32280467261519</v>
       </c>
       <c r="L4">
-        <v>7.787502445628375</v>
+        <v>7.546117549672856</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.5281005878737</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.87205726643482</v>
+      </c>
+      <c r="P4">
+        <v>12.36228982218606</v>
+      </c>
+      <c r="Q4">
+        <v>13.38035688810253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.90266906390403</v>
+        <v>15.15547065802885</v>
       </c>
       <c r="C5">
-        <v>11.87773573757674</v>
+        <v>11.67456311513228</v>
       </c>
       <c r="D5">
-        <v>4.380458490482928</v>
+        <v>8.12645540219761</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.32072981682476</v>
+        <v>20.01930873196291</v>
       </c>
       <c r="G5">
-        <v>33.74957377251482</v>
+        <v>20.00146258841026</v>
       </c>
       <c r="H5">
-        <v>11.31053077081084</v>
+        <v>1.952720643830693</v>
       </c>
       <c r="I5">
-        <v>17.25759204371206</v>
+        <v>2.798874257261299</v>
       </c>
       <c r="J5">
-        <v>5.792633356190358</v>
+        <v>8.34611103559587</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.34666044536331</v>
       </c>
       <c r="L5">
-        <v>7.734256813410045</v>
+        <v>7.512717739837266</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.58469449433679</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.65897041557192</v>
+      </c>
+      <c r="P5">
+        <v>12.37659697232033</v>
+      </c>
+      <c r="Q5">
+        <v>13.33868566392002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.83691758317045</v>
+        <v>15.09748012250848</v>
       </c>
       <c r="C6">
-        <v>11.8386377326775</v>
+        <v>11.65511580955539</v>
       </c>
       <c r="D6">
-        <v>4.378491603686757</v>
+        <v>8.115364725332141</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.29483216716755</v>
+        <v>19.99164097580871</v>
       </c>
       <c r="G6">
-        <v>33.69862489720987</v>
+        <v>19.96010831687338</v>
       </c>
       <c r="H6">
-        <v>11.30720828735393</v>
+        <v>1.961795369587581</v>
       </c>
       <c r="I6">
-        <v>17.25805738307769</v>
+        <v>2.794250069370198</v>
       </c>
       <c r="J6">
-        <v>5.795027402999207</v>
+        <v>8.343381167856046</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.34608882798723</v>
       </c>
       <c r="L6">
-        <v>7.725434673937002</v>
+        <v>7.506880169759317</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.59413801677532</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.62398293144962</v>
+      </c>
+      <c r="P6">
+        <v>12.38004652851179</v>
+      </c>
+      <c r="Q6">
+        <v>13.3267429304004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.28945485252219</v>
+        <v>15.44566376416768</v>
       </c>
       <c r="C7">
-        <v>12.10751153036611</v>
+        <v>11.88430031024505</v>
       </c>
       <c r="D7">
-        <v>4.392208876177945</v>
+        <v>8.204248591453384</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.47634300087582</v>
+        <v>20.12650399197822</v>
       </c>
       <c r="G7">
-        <v>34.05417316061285</v>
+        <v>20.13802196751597</v>
       </c>
       <c r="H7">
-        <v>11.33108490914818</v>
+        <v>1.900871858560343</v>
       </c>
       <c r="I7">
-        <v>17.25628367488964</v>
+        <v>2.832993438280921</v>
       </c>
       <c r="J7">
-        <v>5.778520103173419</v>
+        <v>8.345489528185487</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.31056462532598</v>
       </c>
       <c r="L7">
-        <v>7.786783106247955</v>
+        <v>7.544963459848472</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.52886075520138</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.8711361472063</v>
+      </c>
+      <c r="P7">
+        <v>12.36536944540763</v>
+      </c>
+      <c r="Q7">
+        <v>13.36593263087523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.19008609750303</v>
+        <v>16.90209605539204</v>
       </c>
       <c r="C8">
-        <v>13.23194483059869</v>
+        <v>12.82456331762499</v>
       </c>
       <c r="D8">
-        <v>4.454317453672193</v>
+        <v>8.584035407530809</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.32024989696633</v>
+        <v>20.74240873231791</v>
       </c>
       <c r="G8">
-        <v>35.66796641907447</v>
+        <v>20.95764340851774</v>
       </c>
       <c r="H8">
-        <v>11.45711966650094</v>
+        <v>1.641962359691621</v>
       </c>
       <c r="I8">
-        <v>17.28586691606161</v>
+        <v>2.996726306723748</v>
       </c>
       <c r="J8">
-        <v>5.708376367149924</v>
+        <v>8.366104291318408</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.1748670849858</v>
       </c>
       <c r="L8">
-        <v>8.059863292340355</v>
+        <v>7.709426805523302</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.24733992423885</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.91111283967386</v>
+      </c>
+      <c r="P8">
+        <v>12.30361477686186</v>
+      </c>
+      <c r="Q8">
+        <v>13.56271549333063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.69850427576939</v>
+        <v>19.44128221726653</v>
       </c>
       <c r="C9">
-        <v>15.21540792332024</v>
+        <v>14.46421292768065</v>
       </c>
       <c r="D9">
-        <v>4.581517916692137</v>
+        <v>9.285789766883479</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.12460480678922</v>
+        <v>21.98418931962514</v>
       </c>
       <c r="G9">
-        <v>38.97259188417848</v>
+        <v>22.61328677066815</v>
       </c>
       <c r="H9">
-        <v>11.78311558242658</v>
+        <v>1.941742945351593</v>
       </c>
       <c r="I9">
-        <v>17.49140214556481</v>
+        <v>3.297421387976147</v>
       </c>
       <c r="J9">
-        <v>5.580302004161611</v>
+        <v>8.439078506408288</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.96622201661611</v>
       </c>
       <c r="L9">
-        <v>8.599975734474961</v>
+        <v>8.017062672204545</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.71698496871038</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.76274724733028</v>
+      </c>
+      <c r="P9">
+        <v>12.19838742013866</v>
+      </c>
+      <c r="Q9">
+        <v>14.00999305366943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.07677023952095</v>
+        <v>21.08684119390947</v>
       </c>
       <c r="C10">
-        <v>16.54009217588013</v>
+        <v>15.56130710781007</v>
       </c>
       <c r="D10">
-        <v>4.678073555301682</v>
+        <v>9.666572921183082</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.53695850694904</v>
+        <v>22.72986269646988</v>
       </c>
       <c r="G10">
-        <v>41.46988859435095</v>
+        <v>23.65828475247966</v>
       </c>
       <c r="H10">
-        <v>12.07454285672836</v>
+        <v>2.246273606882449</v>
       </c>
       <c r="I10">
-        <v>17.74410563970111</v>
+        <v>3.505646448939541</v>
       </c>
       <c r="J10">
-        <v>5.491764085243021</v>
+        <v>8.481250610071633</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.79641920198827</v>
       </c>
       <c r="L10">
-        <v>8.996539118580698</v>
+        <v>8.135470055297302</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.33878829646123</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.8524471564096</v>
+      </c>
+      <c r="P10">
+        <v>12.15256351157803</v>
+      </c>
+      <c r="Q10">
+        <v>14.29403688422702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.10562936345191</v>
+        <v>21.71484214372038</v>
       </c>
       <c r="C11">
-        <v>17.11468320267453</v>
+        <v>15.88855466126125</v>
       </c>
       <c r="D11">
-        <v>4.722643433669733</v>
+        <v>8.902851175353174</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.19751410410318</v>
+        <v>21.71949535113157</v>
       </c>
       <c r="G11">
-        <v>42.61858848213773</v>
+        <v>22.88051172722138</v>
       </c>
       <c r="H11">
-        <v>12.21916461655563</v>
+        <v>3.037580259547432</v>
       </c>
       <c r="I11">
-        <v>17.88360369420376</v>
+        <v>3.573757906985163</v>
       </c>
       <c r="J11">
-        <v>5.452643851076052</v>
+        <v>8.288397432927445</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.41205913606715</v>
       </c>
       <c r="L11">
-        <v>9.17635324451466</v>
+        <v>7.45468082097945</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.16881196652511</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>17.01240239903525</v>
+      </c>
+      <c r="P11">
+        <v>12.2871362021313</v>
+      </c>
+      <c r="Q11">
+        <v>13.88516891746995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.48773562162255</v>
+        <v>21.93035691197928</v>
       </c>
       <c r="C12">
-        <v>17.32830968109394</v>
+        <v>15.90349766028347</v>
       </c>
       <c r="D12">
-        <v>4.739612246452895</v>
+        <v>8.187222820708358</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.45020049879634</v>
+        <v>20.7177934988289</v>
       </c>
       <c r="G12">
-        <v>43.05526041263241</v>
+        <v>22.03047653031165</v>
       </c>
       <c r="H12">
-        <v>12.2757224816319</v>
+        <v>4.246985515420738</v>
       </c>
       <c r="I12">
-        <v>17.94015348171031</v>
+        <v>3.586712042386679</v>
       </c>
       <c r="J12">
-        <v>5.437992265614012</v>
+        <v>8.119972846641971</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.14179320888517</v>
       </c>
       <c r="L12">
-        <v>9.24432358702594</v>
+        <v>7.023732956942966</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.10470813282202</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>16.06246307847114</v>
+      </c>
+      <c r="P12">
+        <v>12.41462374388127</v>
+      </c>
+      <c r="Q12">
+        <v>13.48945537607537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.40577368228075</v>
+        <v>21.83112439307018</v>
       </c>
       <c r="C13">
-        <v>17.28247624868618</v>
+        <v>15.71614596462938</v>
       </c>
       <c r="D13">
-        <v>4.735953671396758</v>
+        <v>7.464827434576147</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.39566717832879</v>
+        <v>19.62238313053323</v>
       </c>
       <c r="G13">
-        <v>42.96114190531836</v>
+        <v>21.00558644211436</v>
       </c>
       <c r="H13">
-        <v>12.26346104523028</v>
+        <v>5.545269748218032</v>
       </c>
       <c r="I13">
-        <v>17.92780572235757</v>
+        <v>3.561300807838719</v>
       </c>
       <c r="J13">
-        <v>5.44114058634301</v>
+        <v>7.951193889704624</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.92440981737371</v>
       </c>
       <c r="L13">
-        <v>9.229690875180463</v>
+        <v>6.783579187940139</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.11850293718067</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.94630969961138</v>
+      </c>
+      <c r="P13">
+        <v>12.54507322365983</v>
+      </c>
+      <c r="Q13">
+        <v>13.05481689152397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.13721504126999</v>
+        <v>21.6144707893769</v>
       </c>
       <c r="C14">
-        <v>17.1323372863577</v>
+        <v>15.49835205833766</v>
       </c>
       <c r="D14">
-        <v>4.724037647438925</v>
+        <v>6.962626446027359</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.21825189967052</v>
+        <v>18.80496176750703</v>
       </c>
       <c r="G14">
-        <v>42.65448055249067</v>
+        <v>20.19106533986628</v>
       </c>
       <c r="H14">
-        <v>12.22378139342835</v>
+        <v>6.483497495822956</v>
       </c>
       <c r="I14">
-        <v>17.88818031625365</v>
+        <v>3.52710821034438</v>
       </c>
       <c r="J14">
-        <v>5.45143522401927</v>
+        <v>7.831763608703922</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10.7953277965326</v>
       </c>
       <c r="L14">
-        <v>9.181947826796872</v>
+        <v>6.738465824546375</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.16353304969515</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.07625014789876</v>
+      </c>
+      <c r="P14">
+        <v>12.63856665351047</v>
+      </c>
+      <c r="Q14">
+        <v>12.72847607550184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.97174223407015</v>
+        <v>21.48856994482331</v>
       </c>
       <c r="C15">
-        <v>17.03985953091708</v>
+        <v>15.41060176470286</v>
       </c>
       <c r="D15">
-        <v>4.716750576321714</v>
+        <v>6.838191522650875</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.10991068382691</v>
+        <v>18.5819686987097</v>
       </c>
       <c r="G15">
-        <v>42.46685795203237</v>
+        <v>19.94468977662348</v>
       </c>
       <c r="H15">
-        <v>12.19971170783008</v>
+        <v>6.697460550564596</v>
       </c>
       <c r="I15">
-        <v>17.86439946043842</v>
+        <v>3.511405209843043</v>
       </c>
       <c r="J15">
-        <v>5.457762019986401</v>
+        <v>7.801531397349858</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10.77178365566756</v>
       </c>
       <c r="L15">
-        <v>9.152687036953788</v>
+        <v>6.742991070205237</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.19114841964131</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.82791857978348</v>
+      </c>
+      <c r="P15">
+        <v>12.66203558661148</v>
+      </c>
+      <c r="Q15">
+        <v>12.63737258746859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.00847527616913</v>
+        <v>20.82472859992808</v>
       </c>
       <c r="C16">
-        <v>16.50198332987585</v>
+        <v>15.001245271905</v>
       </c>
       <c r="D16">
-        <v>4.675173639854961</v>
+        <v>6.799244877198471</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.49414847528493</v>
+        <v>18.44237365296667</v>
       </c>
       <c r="G16">
-        <v>41.39506009481936</v>
+        <v>19.63368269880529</v>
       </c>
       <c r="H16">
-        <v>12.0653390934807</v>
+        <v>6.434399799364821</v>
       </c>
       <c r="I16">
-        <v>17.73549977183833</v>
+        <v>3.429704166882589</v>
       </c>
       <c r="J16">
-        <v>5.494343621657086</v>
+        <v>7.812669864212913</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10.8835230151124</v>
       </c>
       <c r="L16">
-        <v>8.984772734021091</v>
+        <v>6.730442702528967</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.34993531639128</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.52653212577452</v>
+      </c>
+      <c r="P16">
+        <v>12.64540717173773</v>
+      </c>
+      <c r="Q16">
+        <v>12.58489896358971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.40404636373779</v>
+        <v>20.42390753367128</v>
       </c>
       <c r="C17">
-        <v>16.16488522109619</v>
+        <v>14.80329836951289</v>
       </c>
       <c r="D17">
-        <v>4.649831494608979</v>
+        <v>7.036800216227943</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.12098400737469</v>
+        <v>18.77808036956931</v>
       </c>
       <c r="G17">
-        <v>40.74067398930603</v>
+        <v>19.84310200550981</v>
       </c>
       <c r="H17">
-        <v>11.98603494020636</v>
+        <v>5.682252838978652</v>
       </c>
       <c r="I17">
-        <v>17.66285012808199</v>
+        <v>3.385146751468673</v>
       </c>
       <c r="J17">
-        <v>5.517078649265287</v>
+        <v>7.885236643020205</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.03633684597194</v>
       </c>
       <c r="L17">
-        <v>8.881584324709953</v>
+        <v>6.72547523409706</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.44785122378372</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.77616490847669</v>
+      </c>
+      <c r="P17">
+        <v>12.58469040080658</v>
+      </c>
+      <c r="Q17">
+        <v>12.72116162441981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.05139567682643</v>
+        <v>20.22538158480211</v>
       </c>
       <c r="C18">
-        <v>15.96835369375446</v>
+        <v>14.74975276478082</v>
       </c>
       <c r="D18">
-        <v>4.635316240350996</v>
+        <v>7.559231811263094</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.90805224653407</v>
+        <v>19.5713809915071</v>
       </c>
       <c r="G18">
-        <v>40.36548520005886</v>
+        <v>20.54249455401813</v>
       </c>
       <c r="H18">
-        <v>11.94155197732459</v>
+        <v>4.465147253965551</v>
       </c>
       <c r="I18">
-        <v>17.62336249670839</v>
+        <v>3.365928171468487</v>
       </c>
       <c r="J18">
-        <v>5.530264290522278</v>
+        <v>8.021129983488509</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.2516189048114</v>
       </c>
       <c r="L18">
-        <v>8.822179874469013</v>
+        <v>6.838275662431344</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.50436662547414</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.53010312296724</v>
+      </c>
+      <c r="P18">
+        <v>12.47888372764125</v>
+      </c>
+      <c r="Q18">
+        <v>13.04158560633204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.93113197544504</v>
+        <v>20.18487495147491</v>
       </c>
       <c r="C19">
-        <v>15.9013558222355</v>
+        <v>14.86401917303117</v>
       </c>
       <c r="D19">
-        <v>4.630412149926336</v>
+        <v>8.300936728591935</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.83625149733495</v>
+        <v>20.64201127772062</v>
       </c>
       <c r="G19">
-        <v>40.23866346714685</v>
+        <v>21.51527902686716</v>
       </c>
       <c r="H19">
-        <v>11.92668317452967</v>
+        <v>3.108273945478178</v>
       </c>
       <c r="I19">
-        <v>17.6103814168897</v>
+        <v>3.376781815660375</v>
       </c>
       <c r="J19">
-        <v>5.534747568004224</v>
+        <v>8.187859215161263</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.48489785867949</v>
       </c>
       <c r="L19">
-        <v>8.80205865881581</v>
+        <v>7.190151134003098</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.52353659394332</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.62438344872176</v>
+      </c>
+      <c r="P19">
+        <v>12.35760669726603</v>
+      </c>
+      <c r="Q19">
+        <v>13.45979064850163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.46890537788425</v>
+        <v>20.63046672924589</v>
       </c>
       <c r="C20">
-        <v>16.20104281101122</v>
+        <v>15.35358221163917</v>
       </c>
       <c r="D20">
-        <v>4.652522924555166</v>
+        <v>9.573274144006398</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.16053222336993</v>
+        <v>22.47765398798038</v>
       </c>
       <c r="G20">
-        <v>40.810211836893</v>
+        <v>23.28656865977323</v>
       </c>
       <c r="H20">
-        <v>11.99435954575811</v>
+        <v>2.164364935198881</v>
       </c>
       <c r="I20">
-        <v>17.67034448984007</v>
+        <v>3.4590827968692</v>
       </c>
       <c r="J20">
-        <v>5.51464720758754</v>
+        <v>8.451927416171335</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.79865428128959</v>
       </c>
       <c r="L20">
-        <v>8.892574705840829</v>
+        <v>8.098616458684436</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.43740779041093</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.57101503624597</v>
+      </c>
+      <c r="P20">
+        <v>12.17522223978359</v>
+      </c>
+      <c r="Q20">
+        <v>14.17502578196157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.2162997346664</v>
+        <v>21.84913762157312</v>
       </c>
       <c r="C21">
-        <v>17.17654357370853</v>
+        <v>16.17840972295036</v>
       </c>
       <c r="D21">
-        <v>4.727535207243421</v>
+        <v>10.0252176914843</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.27029419322602</v>
+        <v>23.29592010694573</v>
       </c>
       <c r="G21">
-        <v>42.74450949750339</v>
+        <v>24.3197900660862</v>
       </c>
       <c r="H21">
-        <v>12.23538713658149</v>
+        <v>2.413374450178694</v>
       </c>
       <c r="I21">
-        <v>17.8997166208632</v>
+        <v>3.619615919977207</v>
       </c>
       <c r="J21">
-        <v>5.448407063114826</v>
+        <v>8.529526788049667</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>11.73722701283919</v>
       </c>
       <c r="L21">
-        <v>9.195974674057377</v>
+        <v>8.337181459155014</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.15029977524534</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.6055559019952</v>
+      </c>
+      <c r="P21">
+        <v>12.11873133045372</v>
+      </c>
+      <c r="Q21">
+        <v>14.50220284294786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.31467073327579</v>
+        <v>22.61916593219091</v>
       </c>
       <c r="C22">
-        <v>17.79105462042284</v>
+        <v>16.65956389181879</v>
       </c>
       <c r="D22">
-        <v>4.777091413624803</v>
+        <v>10.25411323409913</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.01043536103337</v>
+        <v>23.76872397069408</v>
       </c>
       <c r="G22">
-        <v>44.01848388173214</v>
+        <v>24.95312390489812</v>
       </c>
       <c r="H22">
-        <v>12.40339022416362</v>
+        <v>2.565570853040773</v>
       </c>
       <c r="I22">
-        <v>18.07142494958163</v>
+        <v>3.718030688379149</v>
       </c>
       <c r="J22">
-        <v>5.406060023321034</v>
+        <v>8.577682831965639</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>11.70140458540593</v>
       </c>
       <c r="L22">
-        <v>9.393544392908456</v>
+        <v>8.442000539846473</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.96417082764268</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.17827838830567</v>
+      </c>
+      <c r="P22">
+        <v>12.08780874387268</v>
+      </c>
+      <c r="Q22">
+        <v>14.70510696858338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.73239962207357</v>
+        <v>22.22499374954835</v>
       </c>
       <c r="C23">
-        <v>17.46516072493494</v>
+        <v>16.3776908097259</v>
       </c>
       <c r="D23">
-        <v>4.750594022832579</v>
+        <v>10.12871248864159</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.61405994510438</v>
+        <v>23.534828899852</v>
       </c>
       <c r="G23">
-        <v>43.33767192549709</v>
+        <v>24.64892201229523</v>
       </c>
       <c r="H23">
-        <v>12.31274522702972</v>
+        <v>2.485113695860421</v>
       </c>
       <c r="I23">
-        <v>17.97772232481951</v>
+        <v>3.662697929632947</v>
       </c>
       <c r="J23">
-        <v>5.428576290692072</v>
+        <v>8.557767350584662</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>11.7349677600215</v>
       </c>
       <c r="L23">
-        <v>9.288174073688985</v>
+        <v>8.386899319374947</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.0633848762487</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.8730170682984</v>
+      </c>
+      <c r="P23">
+        <v>12.09971816815875</v>
+      </c>
+      <c r="Q23">
+        <v>14.61133728076062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.43959868809612</v>
+        <v>20.6373709680385</v>
       </c>
       <c r="C24">
-        <v>16.18470447104203</v>
+        <v>15.31402890917495</v>
       </c>
       <c r="D24">
-        <v>4.651305959849539</v>
+        <v>9.648164017978093</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.14264747014405</v>
+        <v>22.61537039767342</v>
       </c>
       <c r="G24">
-        <v>40.77877056744203</v>
+        <v>23.43449017108841</v>
       </c>
       <c r="H24">
-        <v>11.99059253855588</v>
+        <v>2.172659566861546</v>
       </c>
       <c r="I24">
-        <v>17.66694920325643</v>
+        <v>3.454074760043822</v>
       </c>
       <c r="J24">
-        <v>5.515746103970798</v>
+        <v>8.478916013226286</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.84926835069103</v>
       </c>
       <c r="L24">
-        <v>8.88760620098101</v>
+        <v>8.173192531846968</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.44212857179659</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.67399554240345</v>
+      </c>
+      <c r="P24">
+        <v>12.15743534906653</v>
+      </c>
+      <c r="Q24">
+        <v>14.24092244295286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.77489531705849</v>
+        <v>18.76720009209104</v>
       </c>
       <c r="C25">
-        <v>14.70232789121474</v>
+        <v>14.08400563099809</v>
       </c>
       <c r="D25">
-        <v>4.546549793314803</v>
+        <v>9.106581334737216</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.62094571978205</v>
+        <v>21.61864161511653</v>
       </c>
       <c r="G25">
-        <v>38.06541148177537</v>
+        <v>22.11155178648849</v>
       </c>
       <c r="H25">
-        <v>11.68607418582934</v>
+        <v>1.820083793639047</v>
       </c>
       <c r="I25">
-        <v>17.41878035836883</v>
+        <v>3.221678777381743</v>
       </c>
       <c r="J25">
-        <v>5.613957243444452</v>
+        <v>8.407270657551496</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.99591200495915</v>
       </c>
       <c r="L25">
-        <v>8.453703665217702</v>
+        <v>7.934494082627664</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.85831465804711</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>16.2852387735399</v>
+      </c>
+      <c r="P25">
+        <v>12.23050234083995</v>
+      </c>
+      <c r="Q25">
+        <v>13.86110870781601</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.29360510353733</v>
+        <v>17.12419104325141</v>
       </c>
       <c r="C2">
-        <v>13.03006736226971</v>
+        <v>13.26807297758347</v>
       </c>
       <c r="D2">
-        <v>8.679484645308472</v>
+        <v>8.717267126987185</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.93420217330804</v>
+        <v>20.72375454060732</v>
       </c>
       <c r="G2">
-        <v>21.22553085037021</v>
+        <v>20.16304817387638</v>
       </c>
       <c r="H2">
-        <v>1.573650498973809</v>
+        <v>1.58387540885915</v>
       </c>
       <c r="I2">
-        <v>3.037673162325108</v>
+        <v>3.049612836152323</v>
       </c>
       <c r="J2">
-        <v>8.380720029241202</v>
+        <v>8.88792202308349</v>
       </c>
       <c r="K2">
-        <v>12.15812614080737</v>
+        <v>11.9436384830875</v>
       </c>
       <c r="L2">
-        <v>7.753853119866588</v>
+        <v>10.90046121813887</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.781619131647012</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.737091460783571</v>
       </c>
       <c r="O2">
-        <v>15.17818114063279</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.28388785569926</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.63771361189817</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.21040401319973</v>
+      </c>
+      <c r="R2">
+        <v>12.30991367843976</v>
+      </c>
+      <c r="S2">
+        <v>13.47986571982033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.18766589994454</v>
+        <v>16.06191389016387</v>
       </c>
       <c r="C3">
-        <v>12.31514661112369</v>
+        <v>12.46574640713866</v>
       </c>
       <c r="D3">
-        <v>8.385887515626347</v>
+        <v>8.41966192272268</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.44525246360842</v>
+        <v>20.27167013095042</v>
       </c>
       <c r="G3">
-        <v>20.57437471581778</v>
+        <v>19.56845352862503</v>
       </c>
       <c r="H3">
-        <v>1.772729326831429</v>
+        <v>1.776394364690116</v>
       </c>
       <c r="I3">
-        <v>2.911366751808483</v>
+        <v>2.936629005371866</v>
       </c>
       <c r="J3">
-        <v>8.360511689000818</v>
+        <v>8.851850315373571</v>
       </c>
       <c r="K3">
-        <v>12.25755237673489</v>
+        <v>12.05727726914111</v>
       </c>
       <c r="L3">
-        <v>7.626363610005556</v>
+        <v>11.06521778394433</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.801556620831008</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.61554525547928</v>
       </c>
       <c r="O3">
-        <v>14.38290463587759</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.33083497615244</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.47533001673416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.41194833895482</v>
+      </c>
+      <c r="R3">
+        <v>12.3370557014794</v>
+      </c>
+      <c r="S3">
+        <v>13.34281984126057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.46544185920455</v>
+        <v>15.3681925862773</v>
       </c>
       <c r="C4">
-        <v>11.85694453479613</v>
+        <v>11.95063888346963</v>
       </c>
       <c r="D4">
-        <v>8.201433373909502</v>
+        <v>8.232995650351056</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.14617767187613</v>
+        <v>19.9945606437297</v>
       </c>
       <c r="G4">
-        <v>20.17452045612433</v>
+        <v>19.20467698441907</v>
       </c>
       <c r="H4">
-        <v>1.899651053748816</v>
+        <v>1.899173899437268</v>
       </c>
       <c r="I4">
-        <v>2.831496220873314</v>
+        <v>2.865308764416242</v>
       </c>
       <c r="J4">
-        <v>8.350930116068836</v>
+        <v>8.830637001508908</v>
       </c>
       <c r="K4">
-        <v>12.32280467261519</v>
+        <v>12.13003485599801</v>
       </c>
       <c r="L4">
-        <v>7.546117549672856</v>
+        <v>11.16993796727447</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.835573278301664</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.539108557784053</v>
       </c>
       <c r="O4">
-        <v>13.87205726643482</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.36228982218606</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.38035688810253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.89897169373798</v>
+      </c>
+      <c r="R4">
+        <v>12.35665194159826</v>
+      </c>
+      <c r="S4">
+        <v>13.2624028320783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.15547065802885</v>
+        <v>15.07025785516282</v>
       </c>
       <c r="C5">
-        <v>11.67456311513228</v>
+        <v>11.74455480608943</v>
       </c>
       <c r="D5">
-        <v>8.12645540219761</v>
+        <v>8.157203493191286</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.01930873196291</v>
+        <v>19.87642718690933</v>
       </c>
       <c r="G5">
-        <v>20.00146258841026</v>
+        <v>19.046335641046</v>
       </c>
       <c r="H5">
-        <v>1.952720643830693</v>
+        <v>1.950521435488993</v>
       </c>
       <c r="I5">
-        <v>2.798874257261299</v>
+        <v>2.836519091797701</v>
       </c>
       <c r="J5">
-        <v>8.34611103559587</v>
+        <v>8.820628930971283</v>
       </c>
       <c r="K5">
-        <v>12.34666044536331</v>
+        <v>12.15672560654042</v>
       </c>
       <c r="L5">
-        <v>7.512717739837266</v>
+        <v>11.20995157653687</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.852958636098204</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.507304191474133</v>
       </c>
       <c r="O5">
-        <v>13.65897041557192</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.37659697232033</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.33868566392002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.68497936268052</v>
+      </c>
+      <c r="R5">
+        <v>12.36624883011513</v>
+      </c>
+      <c r="S5">
+        <v>13.22639935574682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.09748012250848</v>
+        <v>15.01427582692329</v>
       </c>
       <c r="C6">
-        <v>11.65511580955539</v>
+        <v>11.72147659676093</v>
       </c>
       <c r="D6">
-        <v>8.115364725332141</v>
+        <v>8.146003013056891</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.99164097580871</v>
+        <v>19.85017194051186</v>
       </c>
       <c r="G6">
-        <v>19.96010831687338</v>
+        <v>19.00710740897624</v>
       </c>
       <c r="H6">
-        <v>1.961795369587581</v>
+        <v>1.959303053310463</v>
       </c>
       <c r="I6">
-        <v>2.794250069370198</v>
+        <v>2.832885430312025</v>
       </c>
       <c r="J6">
-        <v>8.343381167856046</v>
+        <v>8.817027382116025</v>
       </c>
       <c r="K6">
-        <v>12.34608882798723</v>
+        <v>12.15669730718977</v>
       </c>
       <c r="L6">
-        <v>7.506880169759317</v>
+        <v>11.21231060940613</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.85387340696257</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.50173798745011</v>
       </c>
       <c r="O6">
-        <v>13.62398293144962</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.38004652851179</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.3267429304004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.64984374432379</v>
+      </c>
+      <c r="R6">
+        <v>12.36897843678548</v>
+      </c>
+      <c r="S6">
+        <v>13.21537919797889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.44566376416768</v>
+        <v>15.34356467600173</v>
       </c>
       <c r="C7">
-        <v>11.88430031024505</v>
+        <v>11.9700689572225</v>
       </c>
       <c r="D7">
-        <v>8.204248591453384</v>
+        <v>8.23908852446144</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.12650399197822</v>
+        <v>19.96320920779778</v>
       </c>
       <c r="G7">
-        <v>20.13802196751597</v>
+        <v>19.26252257362539</v>
       </c>
       <c r="H7">
-        <v>1.900871858560343</v>
+        <v>1.900784535864869</v>
       </c>
       <c r="I7">
-        <v>2.832993438280921</v>
+        <v>2.867293727467931</v>
       </c>
       <c r="J7">
-        <v>8.345489528185487</v>
+        <v>8.78701031596983</v>
       </c>
       <c r="K7">
-        <v>12.31056462532598</v>
+        <v>12.11405192343289</v>
       </c>
       <c r="L7">
-        <v>7.544963459848472</v>
+        <v>11.15509300484293</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.826836775688652</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.537947853601018</v>
       </c>
       <c r="O7">
-        <v>13.8711361472063</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.36536944540763</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.36593263087523</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.89577934794898</v>
+      </c>
+      <c r="R7">
+        <v>12.36101434562874</v>
+      </c>
+      <c r="S7">
+        <v>13.23883783293644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.90209605539204</v>
+        <v>16.7320842646802</v>
       </c>
       <c r="C8">
-        <v>12.82456331762499</v>
+        <v>13.00772964848706</v>
       </c>
       <c r="D8">
-        <v>8.584035407530809</v>
+        <v>8.630852863306112</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.74240873231791</v>
+        <v>20.5068433271979</v>
       </c>
       <c r="G8">
-        <v>20.95764340851774</v>
+        <v>20.21854916106873</v>
       </c>
       <c r="H8">
-        <v>1.641962359691621</v>
+        <v>1.651250941941686</v>
       </c>
       <c r="I8">
-        <v>2.996726306723748</v>
+        <v>3.012877336721065</v>
       </c>
       <c r="J8">
-        <v>8.366104291318408</v>
+        <v>8.743849934323922</v>
       </c>
       <c r="K8">
-        <v>12.1748670849858</v>
+        <v>11.95269124686019</v>
       </c>
       <c r="L8">
-        <v>7.709426805523302</v>
+        <v>10.93134475838959</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.763778025060282</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.694644224443238</v>
       </c>
       <c r="O8">
-        <v>14.91111283967386</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.30361477686186</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.56271549333063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.93520676390814</v>
+      </c>
+      <c r="R8">
+        <v>12.32722036769344</v>
+      </c>
+      <c r="S8">
+        <v>13.38367058820945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.44128221726653</v>
+        <v>19.16946416637481</v>
       </c>
       <c r="C9">
-        <v>14.46421292768065</v>
+        <v>14.84241886680394</v>
       </c>
       <c r="D9">
-        <v>9.285789766883479</v>
+        <v>9.345660855830387</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.98418931962514</v>
+        <v>21.64608172632562</v>
       </c>
       <c r="G9">
-        <v>22.61328677066815</v>
+        <v>21.80136279864674</v>
       </c>
       <c r="H9">
-        <v>1.941742945351593</v>
+        <v>1.917060322012992</v>
       </c>
       <c r="I9">
-        <v>3.297421387976147</v>
+        <v>3.281118033322149</v>
       </c>
       <c r="J9">
-        <v>8.439078506408288</v>
+        <v>8.812589870901844</v>
       </c>
       <c r="K9">
-        <v>11.96622201661611</v>
+        <v>11.69734848705484</v>
       </c>
       <c r="L9">
-        <v>8.017062672204545</v>
+        <v>10.55263490898348</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.838393306909736</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.988442178394253</v>
       </c>
       <c r="O9">
-        <v>16.76274724733028</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.19838742013866</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.00999305366943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.79259827438954</v>
+      </c>
+      <c r="R9">
+        <v>12.27457480423016</v>
+      </c>
+      <c r="S9">
+        <v>13.75540241456115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.08684119390947</v>
+        <v>20.72868072643589</v>
       </c>
       <c r="C10">
-        <v>15.56130710781007</v>
+        <v>16.02233232511313</v>
       </c>
       <c r="D10">
-        <v>9.666572921183082</v>
+        <v>9.751558013365678</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.72986269646988</v>
+        <v>22.25971522619567</v>
       </c>
       <c r="G10">
-        <v>23.65828475247966</v>
+        <v>23.28359170521599</v>
       </c>
       <c r="H10">
-        <v>2.246273606882449</v>
+        <v>2.209050277397105</v>
       </c>
       <c r="I10">
-        <v>3.505646448939541</v>
+        <v>3.466001375335971</v>
       </c>
       <c r="J10">
-        <v>8.481250610071633</v>
+        <v>8.637554798070344</v>
       </c>
       <c r="K10">
-        <v>11.79641920198827</v>
+        <v>11.46839003293825</v>
       </c>
       <c r="L10">
-        <v>8.135470055297302</v>
+        <v>10.25390638501983</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.943454610167016</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.097694379463032</v>
       </c>
       <c r="O10">
-        <v>17.8524471564096</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.15256351157803</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.29403688422702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.87471607917162</v>
+      </c>
+      <c r="R10">
+        <v>12.27766169801504</v>
+      </c>
+      <c r="S10">
+        <v>13.93392369525401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.71484214372038</v>
+        <v>21.30725068129803</v>
       </c>
       <c r="C11">
-        <v>15.88855466126125</v>
+        <v>16.26859411490588</v>
       </c>
       <c r="D11">
-        <v>8.902851175353174</v>
+        <v>9.011607253137321</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.71949535113157</v>
+        <v>21.13337398673425</v>
       </c>
       <c r="G11">
-        <v>22.88051172722138</v>
+        <v>23.56890330675539</v>
       </c>
       <c r="H11">
-        <v>3.037580259547432</v>
+        <v>3.005662179061072</v>
       </c>
       <c r="I11">
-        <v>3.573757906985163</v>
+        <v>3.525281043865779</v>
       </c>
       <c r="J11">
-        <v>8.288397432927445</v>
+        <v>8.064120869004968</v>
       </c>
       <c r="K11">
-        <v>11.41205913606715</v>
+        <v>11.06628655762469</v>
       </c>
       <c r="L11">
-        <v>7.45468082097945</v>
+        <v>9.94056278546565</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.71104683685624</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.412488374027687</v>
       </c>
       <c r="O11">
-        <v>17.01240239903525</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.2871362021313</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.88516891746995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.01160793638532</v>
+      </c>
+      <c r="R11">
+        <v>12.45253292686923</v>
+      </c>
+      <c r="S11">
+        <v>13.42764246043454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.93035691197928</v>
+        <v>21.51213613100636</v>
       </c>
       <c r="C12">
-        <v>15.90349766028347</v>
+        <v>16.22074964359864</v>
       </c>
       <c r="D12">
-        <v>8.187222820708358</v>
+        <v>8.297298031484509</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.7177934988289</v>
+        <v>20.1020648374666</v>
       </c>
       <c r="G12">
-        <v>22.03047653031165</v>
+        <v>23.2356483673549</v>
       </c>
       <c r="H12">
-        <v>4.246985515420738</v>
+        <v>4.223716482329042</v>
       </c>
       <c r="I12">
-        <v>3.586712042386679</v>
+        <v>3.535028224648578</v>
       </c>
       <c r="J12">
-        <v>8.119972846641971</v>
+        <v>7.768804346459124</v>
       </c>
       <c r="K12">
-        <v>11.14179320888517</v>
+        <v>10.81051382952486</v>
       </c>
       <c r="L12">
-        <v>7.023732956942966</v>
+        <v>9.768629039919976</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.512159919745282</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.978946034124037</v>
       </c>
       <c r="O12">
-        <v>16.06246307847114</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.41462374388127</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.48945537607537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.05037034497693</v>
+      </c>
+      <c r="R12">
+        <v>12.59788809844145</v>
+      </c>
+      <c r="S12">
+        <v>13.0050658366599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.83112439307018</v>
+        <v>21.44076808449222</v>
       </c>
       <c r="C13">
-        <v>15.71614596462938</v>
+        <v>15.99670445116739</v>
       </c>
       <c r="D13">
-        <v>7.464827434576147</v>
+        <v>7.553414793141272</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.62238313053323</v>
+        <v>19.0664656781707</v>
       </c>
       <c r="G13">
-        <v>21.00558644211436</v>
+        <v>22.12904095163606</v>
       </c>
       <c r="H13">
-        <v>5.545269748218032</v>
+        <v>5.52883737064181</v>
       </c>
       <c r="I13">
-        <v>3.561300807838719</v>
+        <v>3.512670042990536</v>
       </c>
       <c r="J13">
-        <v>7.951193889704624</v>
+        <v>7.694353804399324</v>
       </c>
       <c r="K13">
-        <v>10.92440981737371</v>
+        <v>10.64041876697556</v>
       </c>
       <c r="L13">
-        <v>6.783579187940139</v>
+        <v>9.675073361105662</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.321954541273703</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.739186658304749</v>
       </c>
       <c r="O13">
-        <v>14.94630969961138</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.54507322365983</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.05481689152397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.9353968069874</v>
+      </c>
+      <c r="R13">
+        <v>12.72375210412783</v>
+      </c>
+      <c r="S13">
+        <v>12.61735986390262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.6144707893769</v>
+        <v>21.26105457553738</v>
       </c>
       <c r="C14">
-        <v>15.49835205833766</v>
+        <v>15.76392833321036</v>
       </c>
       <c r="D14">
-        <v>6.962626446027359</v>
+        <v>7.027127866097854</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.80496176750703</v>
+        <v>18.3291517572315</v>
       </c>
       <c r="G14">
-        <v>20.19106533986628</v>
+        <v>20.99408836093349</v>
       </c>
       <c r="H14">
-        <v>6.483497495822956</v>
+        <v>6.470846166207342</v>
       </c>
       <c r="I14">
-        <v>3.52710821034438</v>
+        <v>3.483718408153001</v>
       </c>
       <c r="J14">
-        <v>7.831763608703922</v>
+        <v>7.727112608700465</v>
       </c>
       <c r="K14">
-        <v>10.7953277965326</v>
+        <v>10.55646811408108</v>
       </c>
       <c r="L14">
-        <v>6.738465824546375</v>
+        <v>9.639040767813009</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.193057885517592</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.696645510318114</v>
       </c>
       <c r="O14">
-        <v>14.07625014789876</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.63856665351047</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.72847607550184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.07147857160505</v>
+      </c>
+      <c r="R14">
+        <v>12.80334710714824</v>
+      </c>
+      <c r="S14">
+        <v>12.35525706577599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.48856994482331</v>
+        <v>21.15181218827709</v>
       </c>
       <c r="C15">
-        <v>15.41060176470286</v>
+        <v>15.67697050572198</v>
       </c>
       <c r="D15">
-        <v>6.838191522650875</v>
+        <v>6.893687666894101</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.5819686987097</v>
+        <v>18.14165638681242</v>
       </c>
       <c r="G15">
-        <v>19.94468977662348</v>
+        <v>20.55740321586698</v>
       </c>
       <c r="H15">
-        <v>6.697460550564596</v>
+        <v>6.685848075486586</v>
       </c>
       <c r="I15">
-        <v>3.511405209843043</v>
+        <v>3.471080634998385</v>
       </c>
       <c r="J15">
-        <v>7.801531397349858</v>
+        <v>7.771486946092236</v>
       </c>
       <c r="K15">
-        <v>10.77178365566756</v>
+        <v>10.54910761149586</v>
       </c>
       <c r="L15">
-        <v>6.742991070205237</v>
+        <v>9.641595577358316</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.161276611935993</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.702699022515882</v>
       </c>
       <c r="O15">
-        <v>13.82791857978348</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.66203558661148</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.63737258746859</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.82689488896818</v>
+      </c>
+      <c r="R15">
+        <v>12.81893631043728</v>
+      </c>
+      <c r="S15">
+        <v>12.29306848319114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.82472859992808</v>
+        <v>20.55399256221885</v>
       </c>
       <c r="C16">
-        <v>15.001245271905</v>
+        <v>15.29880868226617</v>
       </c>
       <c r="D16">
-        <v>6.799244877198471</v>
+        <v>6.829508638663037</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.44237365296667</v>
+        <v>18.13482557597487</v>
       </c>
       <c r="G16">
-        <v>19.63368269880529</v>
+        <v>19.32942336744786</v>
       </c>
       <c r="H16">
-        <v>6.434399799364821</v>
+        <v>6.440846103822719</v>
       </c>
       <c r="I16">
-        <v>3.429704166882589</v>
+        <v>3.402310029376412</v>
       </c>
       <c r="J16">
-        <v>7.812669864212913</v>
+        <v>8.108069737557807</v>
       </c>
       <c r="K16">
-        <v>10.8835230151124</v>
+        <v>10.70223296581611</v>
       </c>
       <c r="L16">
-        <v>6.730442702528967</v>
+        <v>9.770623004262205</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.188634410260171</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.69696303604027</v>
       </c>
       <c r="O16">
-        <v>13.52653212577452</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.64540717173773</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.58489896358971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.5440451443509</v>
+      </c>
+      <c r="R16">
+        <v>12.76390745597544</v>
+      </c>
+      <c r="S16">
+        <v>12.35040704030801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.42390753367128</v>
+        <v>20.17804719028862</v>
       </c>
       <c r="C17">
-        <v>14.80329836951289</v>
+        <v>15.12296834380423</v>
       </c>
       <c r="D17">
-        <v>7.036800216227943</v>
+        <v>7.062072999341455</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.77808036956931</v>
+        <v>18.51577905751787</v>
       </c>
       <c r="G17">
-        <v>19.84310200550981</v>
+        <v>19.13738384149679</v>
       </c>
       <c r="H17">
-        <v>5.682252838978652</v>
+        <v>5.685675127595465</v>
       </c>
       <c r="I17">
-        <v>3.385146751468673</v>
+        <v>3.364495674491792</v>
       </c>
       <c r="J17">
-        <v>7.885236643020205</v>
+        <v>8.319153846731972</v>
       </c>
       <c r="K17">
-        <v>11.03633684597194</v>
+        <v>10.86046752936161</v>
       </c>
       <c r="L17">
-        <v>6.72547523409706</v>
+        <v>9.893815611877391</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.270853836957488</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.694701965131998</v>
       </c>
       <c r="O17">
-        <v>13.77616490847669</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.58469040080658</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.72116162441981</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.80210230301589</v>
+      </c>
+      <c r="R17">
+        <v>12.68533368155438</v>
+      </c>
+      <c r="S17">
+        <v>12.52468872287384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.22538158480211</v>
+        <v>19.97933973612776</v>
       </c>
       <c r="C18">
-        <v>14.74975276478082</v>
+        <v>15.10032507707401</v>
       </c>
       <c r="D18">
-        <v>7.559231811263094</v>
+        <v>7.589691724445161</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.5713809915071</v>
+        <v>19.30760204713589</v>
       </c>
       <c r="G18">
-        <v>20.54249455401813</v>
+        <v>19.64937632852978</v>
       </c>
       <c r="H18">
-        <v>4.465147253965551</v>
+        <v>4.454443346528287</v>
       </c>
       <c r="I18">
-        <v>3.365928171468487</v>
+        <v>3.34681478593498</v>
       </c>
       <c r="J18">
-        <v>8.021129983488509</v>
+        <v>8.50362872065576</v>
       </c>
       <c r="K18">
-        <v>11.2516189048114</v>
+        <v>11.05876337275168</v>
       </c>
       <c r="L18">
-        <v>6.838275662431344</v>
+        <v>10.03866481292024</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.418189619578397</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.80764074330443</v>
       </c>
       <c r="O18">
-        <v>14.53010312296724</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.47888372764125</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.04158560633204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.56058835549474</v>
+      </c>
+      <c r="R18">
+        <v>12.57216341797298</v>
+      </c>
+      <c r="S18">
+        <v>12.84538677015177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.18487495147491</v>
+        <v>19.92199340252719</v>
       </c>
       <c r="C19">
-        <v>14.86401917303117</v>
+        <v>15.25710602522754</v>
       </c>
       <c r="D19">
-        <v>8.300936728591935</v>
+        <v>8.342001943194351</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.64201127772062</v>
+        <v>20.34892033486554</v>
       </c>
       <c r="G19">
-        <v>21.51527902686716</v>
+        <v>20.54172449710254</v>
       </c>
       <c r="H19">
-        <v>3.108273945478178</v>
+        <v>3.091881095064435</v>
       </c>
       <c r="I19">
-        <v>3.376781815660375</v>
+        <v>3.357278215394466</v>
       </c>
       <c r="J19">
-        <v>8.187859215161263</v>
+        <v>8.670245266759808</v>
       </c>
       <c r="K19">
-        <v>11.48489785867949</v>
+        <v>11.26187423212261</v>
       </c>
       <c r="L19">
-        <v>7.190151134003098</v>
+        <v>10.18111900593728</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.59281567560731</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.158375269272418</v>
       </c>
       <c r="O19">
-        <v>15.62438344872176</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.35760669726603</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.45979064850163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.65755020899932</v>
+      </c>
+      <c r="R19">
+        <v>12.45020688184777</v>
+      </c>
+      <c r="S19">
+        <v>13.24162287850255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.63046672924589</v>
+        <v>20.30810694051517</v>
       </c>
       <c r="C20">
-        <v>15.35358221163917</v>
+        <v>15.81933908354704</v>
       </c>
       <c r="D20">
-        <v>9.573274144006398</v>
+        <v>9.641634665565261</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.47765398798038</v>
+        <v>22.08006490029914</v>
       </c>
       <c r="G20">
-        <v>23.28656865977323</v>
+        <v>22.49970932435391</v>
       </c>
       <c r="H20">
-        <v>2.164364935198881</v>
+        <v>2.131617849054469</v>
       </c>
       <c r="I20">
-        <v>3.4590827968692</v>
+        <v>3.429908671946971</v>
       </c>
       <c r="J20">
-        <v>8.451927416171335</v>
+        <v>8.79461235802175</v>
       </c>
       <c r="K20">
-        <v>11.79865428128959</v>
+        <v>11.50355840427837</v>
       </c>
       <c r="L20">
-        <v>8.098616458684436</v>
+        <v>10.31485365226042</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.887808426543594</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.063151810002664</v>
       </c>
       <c r="O20">
-        <v>17.57101503624597</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.17522223978359</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.17502578196157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.60187917938877</v>
+      </c>
+      <c r="R20">
+        <v>12.28291350225921</v>
+      </c>
+      <c r="S20">
+        <v>13.87451148176276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.84913762157312</v>
+        <v>21.38891927068004</v>
       </c>
       <c r="C21">
-        <v>16.17840972295036</v>
+        <v>16.58911210576906</v>
       </c>
       <c r="D21">
-        <v>10.0252176914843</v>
+        <v>10.16848876087921</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.29592010694573</v>
+        <v>22.59282455246043</v>
       </c>
       <c r="G21">
-        <v>24.3197900660862</v>
+        <v>25.39598587426802</v>
       </c>
       <c r="H21">
-        <v>2.413374450178694</v>
+        <v>2.364800400699357</v>
       </c>
       <c r="I21">
-        <v>3.619615919977207</v>
+        <v>3.565600218954788</v>
       </c>
       <c r="J21">
-        <v>8.529526788049667</v>
+        <v>8.073673809533567</v>
       </c>
       <c r="K21">
-        <v>11.73722701283919</v>
+        <v>11.30983774620391</v>
       </c>
       <c r="L21">
-        <v>8.337181459155014</v>
+        <v>10.08230834724323</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.971889295327413</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.295923367447509</v>
       </c>
       <c r="O21">
-        <v>18.6055559019952</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.11873133045372</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.50220284294786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.59707600941209</v>
+      </c>
+      <c r="R21">
+        <v>12.29309553637153</v>
+      </c>
+      <c r="S21">
+        <v>13.94985718309777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.61916593219091</v>
+        <v>22.06951160074104</v>
       </c>
       <c r="C22">
-        <v>16.65956389181879</v>
+        <v>17.02398940444275</v>
       </c>
       <c r="D22">
-        <v>10.25411323409913</v>
+        <v>10.44907954406195</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.76872397069408</v>
+        <v>22.85606997204678</v>
       </c>
       <c r="G22">
-        <v>24.95312390489812</v>
+        <v>27.33449714632609</v>
       </c>
       <c r="H22">
-        <v>2.565570853040773</v>
+        <v>2.507000311377803</v>
       </c>
       <c r="I22">
-        <v>3.718030688379149</v>
+        <v>3.647080396314816</v>
       </c>
       <c r="J22">
-        <v>8.577682831965639</v>
+        <v>7.618028000746439</v>
       </c>
       <c r="K22">
-        <v>11.70140458540593</v>
+        <v>11.1795153749054</v>
       </c>
       <c r="L22">
-        <v>8.442000539846473</v>
+        <v>9.932839099711641</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.034499274374828</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.397791643492502</v>
       </c>
       <c r="O22">
-        <v>19.17827838830567</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.08780874387268</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.70510696858338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.14230679769739</v>
+      </c>
+      <c r="R22">
+        <v>12.30937515667124</v>
+      </c>
+      <c r="S22">
+        <v>13.97683800109667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.22499374954835</v>
+        <v>21.73235770082137</v>
       </c>
       <c r="C23">
-        <v>16.3776908097259</v>
+        <v>16.78298189651638</v>
       </c>
       <c r="D23">
-        <v>10.12871248864159</v>
+        <v>10.28853968263429</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.534828899852</v>
+        <v>22.7612087105326</v>
       </c>
       <c r="G23">
-        <v>24.64892201229523</v>
+        <v>26.12248436457432</v>
       </c>
       <c r="H23">
-        <v>2.485113695860421</v>
+        <v>2.432542492474293</v>
       </c>
       <c r="I23">
-        <v>3.662697929632947</v>
+        <v>3.600269515467111</v>
       </c>
       <c r="J23">
-        <v>8.557767350584662</v>
+        <v>7.934808152303277</v>
       </c>
       <c r="K23">
-        <v>11.7349677600215</v>
+        <v>11.2732863766032</v>
       </c>
       <c r="L23">
-        <v>8.386899319374947</v>
+        <v>10.02633085600722</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.024126076326111</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.343977163505791</v>
       </c>
       <c r="O23">
-        <v>18.8730170682984</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.09971816815875</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.61133728076062</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.85630382282888</v>
+      </c>
+      <c r="R23">
+        <v>12.29140201311193</v>
+      </c>
+      <c r="S23">
+        <v>13.99972105198425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.6373709680385</v>
+        <v>20.31431379648215</v>
       </c>
       <c r="C24">
-        <v>15.31402890917495</v>
+        <v>15.78323943780906</v>
       </c>
       <c r="D24">
-        <v>9.648164017978093</v>
+        <v>9.716898612891372</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.61537039767342</v>
+        <v>22.21672545111798</v>
       </c>
       <c r="G24">
-        <v>23.43449017108841</v>
+        <v>22.62860824505195</v>
       </c>
       <c r="H24">
-        <v>2.172659566861546</v>
+        <v>2.139814644988035</v>
       </c>
       <c r="I24">
-        <v>3.454074760043822</v>
+        <v>3.422952251114278</v>
       </c>
       <c r="J24">
-        <v>8.478916013226286</v>
+        <v>8.82594022980645</v>
       </c>
       <c r="K24">
-        <v>11.84926835069103</v>
+        <v>11.55017571564828</v>
       </c>
       <c r="L24">
-        <v>8.173192531846968</v>
+        <v>10.34758354191313</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.927056409738825</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.13775795304254</v>
       </c>
       <c r="O24">
-        <v>17.67399554240345</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.15743534906653</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.24092244295286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.70534338622819</v>
+      </c>
+      <c r="R24">
+        <v>12.2638153581155</v>
+      </c>
+      <c r="S24">
+        <v>13.93947625533457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.76720009209104</v>
+        <v>18.52743641229346</v>
       </c>
       <c r="C25">
-        <v>14.08400563099809</v>
+        <v>14.42387505305083</v>
       </c>
       <c r="D25">
-        <v>9.106581334737216</v>
+        <v>9.158656358015961</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.61864161511653</v>
+        <v>21.32417354224948</v>
       </c>
       <c r="G25">
-        <v>22.11155178648849</v>
+        <v>21.19262107119782</v>
       </c>
       <c r="H25">
-        <v>1.820083793639047</v>
+        <v>1.800083416459528</v>
       </c>
       <c r="I25">
-        <v>3.221678777381743</v>
+        <v>3.216085730512272</v>
       </c>
       <c r="J25">
-        <v>8.407270657551496</v>
+        <v>8.836615895322506</v>
       </c>
       <c r="K25">
-        <v>11.99591200495915</v>
+        <v>11.74771350770359</v>
       </c>
       <c r="L25">
-        <v>7.934494082627664</v>
+        <v>10.64040855044</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.786076061098084</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.909488471611402</v>
       </c>
       <c r="O25">
-        <v>16.2852387735399</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.23050234083995</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.86110870781601</v>
+        <v>16.31653630071838</v>
+      </c>
+      <c r="R25">
+        <v>12.290714138764</v>
+      </c>
+      <c r="S25">
+        <v>13.64052080485025</v>
       </c>
     </row>
   </sheetData>
